--- a/BackTest/2019-10-25 BackTest KNC.xlsx
+++ b/BackTest/2019-10-25 BackTest KNC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>187.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>187.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>187.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>187.1</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>187.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>187.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>187.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>187.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>187.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>187.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>187.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
         <v>187.6</v>
@@ -1466,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>187.7</v>
@@ -1515,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>187.8</v>
@@ -1564,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>187.9</v>
@@ -1612,9 +1634,7 @@
       <c r="J27" t="n">
         <v>3</v>
       </c>
-      <c r="K27" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>188</v>
       </c>
@@ -1661,9 +1681,7 @@
       <c r="J28" t="n">
         <v>3</v>
       </c>
-      <c r="K28" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>188</v>
       </c>
@@ -1711,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>188.1</v>
@@ -1760,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>188.2</v>
@@ -1809,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>188.3</v>
@@ -1860,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
         <v>188.4</v>
@@ -2165,9 +2183,7 @@
       <c r="J38" t="n">
         <v>4</v>
       </c>
-      <c r="K38" t="n">
-        <v>100</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>189</v>
       </c>
@@ -2216,9 +2232,7 @@
       <c r="J39" t="n">
         <v>4</v>
       </c>
-      <c r="K39" t="n">
-        <v>100</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>189</v>
       </c>
@@ -2267,9 +2281,7 @@
       <c r="J40" t="n">
         <v>4</v>
       </c>
-      <c r="K40" t="n">
-        <v>100</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>189</v>
       </c>
@@ -2318,9 +2330,7 @@
       <c r="J41" t="n">
         <v>4</v>
       </c>
-      <c r="K41" t="n">
-        <v>100</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>189</v>
       </c>
@@ -2369,9 +2379,7 @@
       <c r="J42" t="n">
         <v>4</v>
       </c>
-      <c r="K42" t="n">
-        <v>100</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>189</v>
       </c>
@@ -2420,9 +2428,7 @@
       <c r="J43" t="n">
         <v>4</v>
       </c>
-      <c r="K43" t="n">
-        <v>100</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>189</v>
       </c>
@@ -2471,9 +2477,7 @@
       <c r="J44" t="n">
         <v>4</v>
       </c>
-      <c r="K44" t="n">
-        <v>100</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>189</v>
       </c>
@@ -2522,9 +2526,7 @@
       <c r="J45" t="n">
         <v>4</v>
       </c>
-      <c r="K45" t="n">
-        <v>100</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>189</v>
       </c>
@@ -2573,9 +2575,7 @@
       <c r="J46" t="n">
         <v>4</v>
       </c>
-      <c r="K46" t="n">
-        <v>100</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>189</v>
       </c>
@@ -2624,9 +2624,7 @@
       <c r="J47" t="n">
         <v>4</v>
       </c>
-      <c r="K47" t="n">
-        <v>100</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>189</v>
       </c>
@@ -2675,9 +2673,7 @@
       <c r="J48" t="n">
         <v>4</v>
       </c>
-      <c r="K48" t="n">
-        <v>100</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>189</v>
       </c>
@@ -3578,7 +3574,7 @@
         <v>6</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
         <v>188.8</v>
@@ -3629,7 +3625,7 @@
         <v>6</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
         <v>188.9</v>
@@ -3679,9 +3675,7 @@
       <c r="J68" t="n">
         <v>6</v>
       </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>189</v>
       </c>
@@ -3730,9 +3724,7 @@
       <c r="J69" t="n">
         <v>6</v>
       </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>189</v>
       </c>
@@ -3781,9 +3773,7 @@
       <c r="J70" t="n">
         <v>6</v>
       </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>189</v>
       </c>
@@ -3832,9 +3822,7 @@
       <c r="J71" t="n">
         <v>6</v>
       </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>189</v>
       </c>
@@ -3883,9 +3871,7 @@
       <c r="J72" t="n">
         <v>6</v>
       </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>189</v>
       </c>
@@ -3934,9 +3920,7 @@
       <c r="J73" t="n">
         <v>6</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>189</v>
       </c>
@@ -3985,9 +3969,7 @@
       <c r="J74" t="n">
         <v>6</v>
       </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>189</v>
       </c>
@@ -4036,9 +4018,7 @@
       <c r="J75" t="n">
         <v>6</v>
       </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>189</v>
       </c>
@@ -4087,9 +4067,7 @@
       <c r="J76" t="n">
         <v>6</v>
       </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>189</v>
       </c>
@@ -4138,9 +4116,7 @@
       <c r="J77" t="n">
         <v>6</v>
       </c>
-      <c r="K77" t="n">
-        <v>100</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>189</v>
       </c>
@@ -4189,9 +4165,7 @@
       <c r="J78" t="n">
         <v>6</v>
       </c>
-      <c r="K78" t="n">
-        <v>100</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>189</v>
       </c>
@@ -4895,9 +4869,7 @@
       <c r="J92" t="n">
         <v>7</v>
       </c>
-      <c r="K92" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>188</v>
       </c>
@@ -4946,9 +4918,7 @@
       <c r="J93" t="n">
         <v>7</v>
       </c>
-      <c r="K93" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>188</v>
       </c>
@@ -4997,9 +4967,7 @@
       <c r="J94" t="n">
         <v>7</v>
       </c>
-      <c r="K94" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>188</v>
       </c>
@@ -5048,9 +5016,7 @@
       <c r="J95" t="n">
         <v>7</v>
       </c>
-      <c r="K95" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>188</v>
       </c>
@@ -5099,9 +5065,7 @@
       <c r="J96" t="n">
         <v>7</v>
       </c>
-      <c r="K96" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>188</v>
       </c>
@@ -5150,9 +5114,7 @@
       <c r="J97" t="n">
         <v>7</v>
       </c>
-      <c r="K97" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>188</v>
       </c>
@@ -5201,9 +5163,7 @@
       <c r="J98" t="n">
         <v>7</v>
       </c>
-      <c r="K98" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>188</v>
       </c>
@@ -5252,9 +5212,7 @@
       <c r="J99" t="n">
         <v>7</v>
       </c>
-      <c r="K99" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>188</v>
       </c>
@@ -5303,9 +5261,7 @@
       <c r="J100" t="n">
         <v>7</v>
       </c>
-      <c r="K100" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>188</v>
       </c>
@@ -5354,9 +5310,7 @@
       <c r="J101" t="n">
         <v>7</v>
       </c>
-      <c r="K101" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>188</v>
       </c>
@@ -5405,9 +5359,7 @@
       <c r="J102" t="n">
         <v>7</v>
       </c>
-      <c r="K102" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>188</v>
       </c>
@@ -6454,9 +6406,7 @@
       <c r="J123" t="n">
         <v>8</v>
       </c>
-      <c r="K123" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>187</v>
       </c>
@@ -6505,9 +6455,7 @@
       <c r="J124" t="n">
         <v>8</v>
       </c>
-      <c r="K124" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>187</v>
       </c>
@@ -6556,9 +6504,7 @@
       <c r="J125" t="n">
         <v>8</v>
       </c>
-      <c r="K125" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>187</v>
       </c>
@@ -6607,9 +6553,7 @@
       <c r="J126" t="n">
         <v>8</v>
       </c>
-      <c r="K126" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>187</v>
       </c>
@@ -6659,7 +6603,7 @@
         <v>9</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>187.1</v>
@@ -6710,7 +6654,7 @@
         <v>11</v>
       </c>
       <c r="K128" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>187</v>
@@ -6761,7 +6705,7 @@
         <v>11</v>
       </c>
       <c r="K129" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>186.9</v>
@@ -6812,7 +6756,7 @@
         <v>11</v>
       </c>
       <c r="K130" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>186.8</v>
@@ -6863,7 +6807,7 @@
         <v>12</v>
       </c>
       <c r="K131" t="n">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="L131" t="n">
         <v>186.6</v>
@@ -6914,7 +6858,7 @@
         <v>15</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>186.7</v>
@@ -6965,7 +6909,7 @@
         <v>17</v>
       </c>
       <c r="K133" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L133" t="n">
         <v>186.6</v>
@@ -7118,7 +7062,7 @@
         <v>21</v>
       </c>
       <c r="K136" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>186.8</v>
@@ -7169,7 +7113,7 @@
         <v>22</v>
       </c>
       <c r="K137" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L137" t="n">
         <v>186.9</v>
@@ -7220,7 +7164,7 @@
         <v>22</v>
       </c>
       <c r="K138" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L138" t="n">
         <v>187.2</v>
@@ -7271,7 +7215,7 @@
         <v>22</v>
       </c>
       <c r="K139" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L139" t="n">
         <v>187.5</v>
@@ -7322,7 +7266,7 @@
         <v>22</v>
       </c>
       <c r="K140" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L140" t="n">
         <v>187.8</v>
@@ -7424,7 +7368,7 @@
         <v>22</v>
       </c>
       <c r="K142" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L142" t="n">
         <v>188.3</v>
@@ -7475,7 +7419,7 @@
         <v>22</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>188.6</v>
@@ -7526,7 +7470,7 @@
         <v>23</v>
       </c>
       <c r="K144" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L144" t="n">
         <v>188.8</v>
@@ -7577,7 +7521,7 @@
         <v>23</v>
       </c>
       <c r="K145" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L145" t="n">
         <v>189.1</v>
@@ -7628,7 +7572,7 @@
         <v>24</v>
       </c>
       <c r="K146" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L146" t="n">
         <v>189.4</v>
@@ -7679,7 +7623,7 @@
         <v>25</v>
       </c>
       <c r="K147" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>189.5</v>
@@ -7730,7 +7674,7 @@
         <v>25</v>
       </c>
       <c r="K148" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>189.6</v>
@@ -7781,7 +7725,7 @@
         <v>26</v>
       </c>
       <c r="K149" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L149" t="n">
         <v>189.8</v>
@@ -7832,7 +7776,7 @@
         <v>26</v>
       </c>
       <c r="K150" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L150" t="n">
         <v>190</v>
@@ -7883,7 +7827,7 @@
         <v>26</v>
       </c>
       <c r="K151" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L151" t="n">
         <v>190.2</v>
@@ -7934,7 +7878,7 @@
         <v>26</v>
       </c>
       <c r="K152" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L152" t="n">
         <v>190.4</v>
@@ -7985,7 +7929,7 @@
         <v>27</v>
       </c>
       <c r="K153" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>190.5</v>
@@ -8036,7 +7980,7 @@
         <v>28</v>
       </c>
       <c r="K154" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>190.4</v>
@@ -8087,7 +8031,7 @@
         <v>30</v>
       </c>
       <c r="K155" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>190.5</v>
@@ -8138,7 +8082,7 @@
         <v>32</v>
       </c>
       <c r="K156" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L156" t="n">
         <v>190.3</v>
@@ -8189,7 +8133,7 @@
         <v>33</v>
       </c>
       <c r="K157" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>190.3</v>
@@ -8240,7 +8184,7 @@
         <v>34</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L158" t="n">
         <v>190.2</v>
@@ -8291,7 +8235,7 @@
         <v>34</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L159" t="n">
         <v>190</v>
@@ -8342,7 +8286,7 @@
         <v>34</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L160" t="n">
         <v>189.8</v>
@@ -8393,7 +8337,7 @@
         <v>35</v>
       </c>
       <c r="K161" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>189.5</v>
@@ -8444,7 +8388,7 @@
         <v>35</v>
       </c>
       <c r="K162" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L162" t="n">
         <v>189.2</v>
@@ -8495,7 +8439,7 @@
         <v>35</v>
       </c>
       <c r="K163" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L163" t="n">
         <v>189</v>
@@ -8546,7 +8490,7 @@
         <v>35</v>
       </c>
       <c r="K164" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L164" t="n">
         <v>188.9</v>
@@ -8597,7 +8541,7 @@
         <v>36</v>
       </c>
       <c r="K165" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L165" t="n">
         <v>188.5</v>
@@ -8648,7 +8592,7 @@
         <v>37</v>
       </c>
       <c r="K166" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L166" t="n">
         <v>188.4</v>
@@ -8699,7 +8643,7 @@
         <v>37</v>
       </c>
       <c r="K167" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>188.2</v>
@@ -8750,7 +8694,7 @@
         <v>37</v>
       </c>
       <c r="K168" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>188.1</v>
@@ -8801,7 +8745,7 @@
         <v>38</v>
       </c>
       <c r="K169" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L169" t="n">
         <v>187.9</v>
@@ -8903,7 +8847,7 @@
         <v>39</v>
       </c>
       <c r="K171" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>187.7</v>
@@ -8954,7 +8898,7 @@
         <v>39</v>
       </c>
       <c r="K172" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>187.7</v>
@@ -9005,7 +8949,7 @@
         <v>39</v>
       </c>
       <c r="K173" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>187.7</v>
@@ -9056,7 +9000,7 @@
         <v>39</v>
       </c>
       <c r="K174" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L174" t="n">
         <v>187.7</v>
@@ -9107,7 +9051,7 @@
         <v>39</v>
       </c>
       <c r="K175" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>187.8</v>
@@ -9158,7 +9102,7 @@
         <v>42</v>
       </c>
       <c r="K176" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L176" t="n">
         <v>187.5</v>
@@ -9209,7 +9153,7 @@
         <v>43</v>
       </c>
       <c r="K177" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L177" t="n">
         <v>187.3</v>
@@ -9260,7 +9204,7 @@
         <v>43</v>
       </c>
       <c r="K178" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L178" t="n">
         <v>187.1</v>
@@ -9311,7 +9255,7 @@
         <v>44</v>
       </c>
       <c r="K179" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>187.1</v>
@@ -9362,7 +9306,7 @@
         <v>45</v>
       </c>
       <c r="K180" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>187</v>
@@ -9413,7 +9357,7 @@
         <v>46</v>
       </c>
       <c r="K181" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L181" t="n">
         <v>186.9</v>
@@ -9464,7 +9408,7 @@
         <v>46</v>
       </c>
       <c r="K182" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L182" t="n">
         <v>186.8</v>
@@ -9515,7 +9459,7 @@
         <v>48</v>
       </c>
       <c r="K183" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L183" t="n">
         <v>186.9</v>
@@ -9566,7 +9510,7 @@
         <v>48</v>
       </c>
       <c r="K184" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L184" t="n">
         <v>187</v>
@@ -9617,7 +9561,7 @@
         <v>48</v>
       </c>
       <c r="K185" t="n">
-        <v>16.66666666666666</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L185" t="n">
         <v>187.1</v>
@@ -9668,7 +9612,7 @@
         <v>51</v>
       </c>
       <c r="K186" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>187.2</v>
@@ -9719,7 +9663,7 @@
         <v>52</v>
       </c>
       <c r="K187" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L187" t="n">
         <v>187.3</v>
@@ -9770,7 +9714,7 @@
         <v>54</v>
       </c>
       <c r="K188" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L188" t="n">
         <v>187.6</v>
@@ -9821,7 +9765,7 @@
         <v>54</v>
       </c>
       <c r="K189" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>187.8</v>
@@ -9872,7 +9816,7 @@
         <v>54</v>
       </c>
       <c r="K190" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L190" t="n">
         <v>188.1</v>
@@ -9923,7 +9867,7 @@
         <v>55</v>
       </c>
       <c r="K191" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>188.4</v>
@@ -9974,7 +9918,7 @@
         <v>57</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L192" t="n">
         <v>188.5</v>
@@ -10025,7 +9969,7 @@
         <v>57</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L193" t="n">
         <v>188.4</v>
@@ -10076,7 +10020,7 @@
         <v>57</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L194" t="n">
         <v>188.3</v>
@@ -10127,7 +10071,7 @@
         <v>57</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>188.2</v>
@@ -10229,7 +10173,7 @@
         <v>57</v>
       </c>
       <c r="K197" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>188.5</v>
@@ -10280,7 +10224,7 @@
         <v>58</v>
       </c>
       <c r="K198" t="n">
-        <v>6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L198" t="n">
         <v>188.3</v>
@@ -10331,7 +10275,7 @@
         <v>59</v>
       </c>
       <c r="K199" t="n">
-        <v>-6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L199" t="n">
         <v>188</v>
@@ -10382,7 +10326,7 @@
         <v>60</v>
       </c>
       <c r="K200" t="n">
-        <v>6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L200" t="n">
         <v>187.8</v>
@@ -10433,7 +10377,7 @@
         <v>61</v>
       </c>
       <c r="K201" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>187.6</v>
@@ -10484,7 +10428,7 @@
         <v>61</v>
       </c>
       <c r="K202" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>187.6</v>
@@ -10535,7 +10479,7 @@
         <v>62</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L203" t="n">
         <v>187.7</v>
@@ -10586,7 +10530,7 @@
         <v>64</v>
       </c>
       <c r="K204" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L204" t="n">
         <v>188</v>
@@ -10637,7 +10581,7 @@
         <v>64</v>
       </c>
       <c r="K205" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L205" t="n">
         <v>188.3</v>
@@ -10688,7 +10632,7 @@
         <v>66</v>
       </c>
       <c r="K206" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L206" t="n">
         <v>188.4</v>
@@ -10739,7 +10683,7 @@
         <v>67</v>
       </c>
       <c r="K207" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>188.6</v>
@@ -10790,7 +10734,7 @@
         <v>67</v>
       </c>
       <c r="K208" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L208" t="n">
         <v>188.9</v>
@@ -10841,7 +10785,7 @@
         <v>68</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L209" t="n">
         <v>189.2</v>
@@ -10892,7 +10836,7 @@
         <v>68</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L210" t="n">
         <v>189.4</v>
@@ -10943,7 +10887,7 @@
         <v>68</v>
       </c>
       <c r="K211" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L211" t="n">
         <v>189.5</v>
@@ -10994,7 +10938,7 @@
         <v>68</v>
       </c>
       <c r="K212" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>189.6</v>
@@ -11045,7 +10989,7 @@
         <v>69</v>
       </c>
       <c r="K213" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L213" t="n">
         <v>189.7</v>
@@ -11096,7 +11040,7 @@
         <v>70</v>
       </c>
       <c r="K214" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>189.5</v>
@@ -11147,7 +11091,7 @@
         <v>70</v>
       </c>
       <c r="K215" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>189.3</v>
@@ -11198,7 +11142,7 @@
         <v>70</v>
       </c>
       <c r="K216" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>189.3</v>
@@ -11249,7 +11193,7 @@
         <v>70</v>
       </c>
       <c r="K217" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L217" t="n">
         <v>189.2</v>
@@ -11300,7 +11244,7 @@
         <v>70</v>
       </c>
       <c r="K218" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>189.1</v>
@@ -11351,7 +11295,7 @@
         <v>70</v>
       </c>
       <c r="K219" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>189.1</v>
@@ -11402,7 +11346,7 @@
         <v>70</v>
       </c>
       <c r="K220" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>189.1</v>
@@ -11453,7 +11397,7 @@
         <v>70</v>
       </c>
       <c r="K221" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>189.1</v>
@@ -11504,7 +11448,7 @@
         <v>70</v>
       </c>
       <c r="K222" t="n">
-        <v>11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L222" t="n">
         <v>189.1</v>
@@ -11554,9 +11498,7 @@
       <c r="J223" t="n">
         <v>70</v>
       </c>
-      <c r="K223" t="n">
-        <v>0</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>189</v>
       </c>
@@ -11606,7 +11548,7 @@
         <v>71</v>
       </c>
       <c r="K224" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L224" t="n">
         <v>188.9</v>
@@ -11657,7 +11599,7 @@
         <v>72</v>
       </c>
       <c r="K225" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>188.9</v>
@@ -11759,7 +11701,7 @@
         <v>72</v>
       </c>
       <c r="K227" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>188.9</v>
@@ -11810,7 +11752,7 @@
         <v>73</v>
       </c>
       <c r="K228" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L228" t="n">
         <v>189</v>
@@ -11861,7 +11803,7 @@
         <v>75</v>
       </c>
       <c r="K229" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L229" t="n">
         <v>189.3</v>
@@ -11912,7 +11854,7 @@
         <v>77</v>
       </c>
       <c r="K230" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L230" t="n">
         <v>189.4</v>
@@ -11963,7 +11905,7 @@
         <v>77</v>
       </c>
       <c r="K231" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L231" t="n">
         <v>189.5</v>
@@ -12014,7 +11956,7 @@
         <v>77</v>
       </c>
       <c r="K232" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L232" t="n">
         <v>189.6</v>
@@ -12065,7 +12007,7 @@
         <v>77</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>189.7</v>
@@ -12116,7 +12058,7 @@
         <v>78</v>
       </c>
       <c r="K234" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>190</v>
@@ -12167,7 +12109,7 @@
         <v>79</v>
       </c>
       <c r="K235" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L235" t="n">
         <v>190.1</v>
@@ -12218,7 +12160,7 @@
         <v>79</v>
       </c>
       <c r="K236" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L236" t="n">
         <v>190.2</v>
@@ -12269,7 +12211,7 @@
         <v>79</v>
       </c>
       <c r="K237" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>190.3</v>
@@ -12320,7 +12262,7 @@
         <v>79</v>
       </c>
       <c r="K238" t="n">
-        <v>11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L238" t="n">
         <v>190.3</v>
@@ -12371,7 +12313,7 @@
         <v>79</v>
       </c>
       <c r="K239" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>190.1</v>
@@ -12422,7 +12364,7 @@
         <v>80</v>
       </c>
       <c r="K240" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L240" t="n">
         <v>190.2</v>
@@ -12473,7 +12415,7 @@
         <v>80</v>
       </c>
       <c r="K241" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>190.3</v>
@@ -12524,7 +12466,7 @@
         <v>81</v>
       </c>
       <c r="K242" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>190.3</v>
@@ -12575,7 +12517,7 @@
         <v>81</v>
       </c>
       <c r="K243" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L243" t="n">
         <v>190.3</v>
@@ -12626,7 +12568,7 @@
         <v>82</v>
       </c>
       <c r="K244" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>190.3</v>
@@ -12677,7 +12619,7 @@
         <v>83</v>
       </c>
       <c r="K245" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>190.3</v>
@@ -12728,7 +12670,7 @@
         <v>83</v>
       </c>
       <c r="K246" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>190.3</v>
@@ -12779,7 +12721,7 @@
         <v>83</v>
       </c>
       <c r="K247" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>190.3</v>
@@ -12830,7 +12772,7 @@
         <v>84</v>
       </c>
       <c r="K248" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L248" t="n">
         <v>190.4</v>
@@ -12932,7 +12874,7 @@
         <v>86</v>
       </c>
       <c r="K250" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>190.2</v>
@@ -12983,7 +12925,7 @@
         <v>89</v>
       </c>
       <c r="K251" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L251" t="n">
         <v>190.3</v>
@@ -13034,7 +12976,7 @@
         <v>89</v>
       </c>
       <c r="K252" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L252" t="n">
         <v>190.5</v>
@@ -13085,7 +13027,7 @@
         <v>90</v>
       </c>
       <c r="K253" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>190.6</v>
@@ -13136,7 +13078,7 @@
         <v>91</v>
       </c>
       <c r="K254" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L254" t="n">
         <v>190.7</v>
@@ -13187,7 +13129,7 @@
         <v>91</v>
       </c>
       <c r="K255" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L255" t="n">
         <v>190.9</v>
@@ -13238,7 +13180,7 @@
         <v>91</v>
       </c>
       <c r="K256" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L256" t="n">
         <v>191.1</v>
@@ -13289,7 +13231,7 @@
         <v>91</v>
       </c>
       <c r="K257" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L257" t="n">
         <v>191.3</v>
@@ -13340,7 +13282,7 @@
         <v>91</v>
       </c>
       <c r="K258" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>191.4</v>
@@ -13391,7 +13333,7 @@
         <v>92</v>
       </c>
       <c r="K259" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>191.5</v>
@@ -13442,7 +13384,7 @@
         <v>92</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>191.7</v>
@@ -13493,7 +13435,7 @@
         <v>92</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>191.6</v>
@@ -13544,7 +13486,7 @@
         <v>92</v>
       </c>
       <c r="K262" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>191.5</v>
@@ -13595,7 +13537,7 @@
         <v>93</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L263" t="n">
         <v>191.4</v>
@@ -13646,7 +13588,7 @@
         <v>94</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>191.3</v>
@@ -13697,7 +13639,7 @@
         <v>95</v>
       </c>
       <c r="K265" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>191.3</v>
@@ -13748,7 +13690,7 @@
         <v>96</v>
       </c>
       <c r="K266" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L266" t="n">
         <v>191.4</v>
@@ -13799,7 +13741,7 @@
         <v>96</v>
       </c>
       <c r="K267" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L267" t="n">
         <v>191.5</v>
@@ -13850,7 +13792,7 @@
         <v>97</v>
       </c>
       <c r="K268" t="n">
-        <v>23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L268" t="n">
         <v>191.7</v>
@@ -14003,7 +13945,7 @@
         <v>102</v>
       </c>
       <c r="K271" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L271" t="n">
         <v>192.3</v>
@@ -14054,7 +13996,7 @@
         <v>102</v>
       </c>
       <c r="K272" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>192.5</v>
@@ -14105,7 +14047,7 @@
         <v>103</v>
       </c>
       <c r="K273" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L273" t="n">
         <v>192.7</v>
@@ -14207,7 +14149,7 @@
         <v>103</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L275" t="n">
         <v>192.8</v>
@@ -14258,7 +14200,7 @@
         <v>104</v>
       </c>
       <c r="K276" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>192.8</v>
@@ -14309,7 +14251,7 @@
         <v>106</v>
       </c>
       <c r="K277" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L277" t="n">
         <v>192.6</v>
@@ -14360,7 +14302,7 @@
         <v>106</v>
       </c>
       <c r="K278" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L278" t="n">
         <v>192.3</v>
@@ -14411,7 +14353,7 @@
         <v>108</v>
       </c>
       <c r="K279" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L279" t="n">
         <v>192.4</v>
@@ -14462,7 +14404,7 @@
         <v>108</v>
       </c>
       <c r="K280" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>192.3</v>
@@ -14513,7 +14455,7 @@
         <v>108</v>
       </c>
       <c r="K281" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>192.3</v>
@@ -14564,7 +14506,7 @@
         <v>108</v>
       </c>
       <c r="K282" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L282" t="n">
         <v>192.3</v>
@@ -14666,7 +14608,7 @@
         <v>109</v>
       </c>
       <c r="K284" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>192.6</v>
@@ -14717,7 +14659,7 @@
         <v>109</v>
       </c>
       <c r="K285" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L285" t="n">
         <v>192.8</v>
@@ -14768,7 +14710,7 @@
         <v>110</v>
       </c>
       <c r="K286" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L286" t="n">
         <v>193</v>
@@ -14819,7 +14761,7 @@
         <v>111</v>
       </c>
       <c r="K287" t="n">
-        <v>6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L287" t="n">
         <v>193.3</v>
@@ -14870,7 +14812,7 @@
         <v>111</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>193.6</v>
@@ -14921,7 +14863,7 @@
         <v>112</v>
       </c>
       <c r="K289" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L289" t="n">
         <v>193.8</v>
@@ -14972,7 +14914,7 @@
         <v>112</v>
       </c>
       <c r="K290" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L290" t="n">
         <v>194</v>
@@ -15023,7 +14965,7 @@
         <v>113</v>
       </c>
       <c r="K291" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L291" t="n">
         <v>194.1</v>
@@ -15074,7 +15016,7 @@
         <v>113</v>
       </c>
       <c r="K292" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L292" t="n">
         <v>194.2</v>
@@ -15125,7 +15067,7 @@
         <v>113</v>
       </c>
       <c r="K293" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>194.3</v>
@@ -15176,7 +15118,7 @@
         <v>114</v>
       </c>
       <c r="K294" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L294" t="n">
         <v>194.2</v>
@@ -15227,7 +15169,7 @@
         <v>114</v>
       </c>
       <c r="K295" t="n">
-        <v>9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L295" t="n">
         <v>194.1</v>
@@ -15278,7 +15220,7 @@
         <v>114</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>193.9</v>
@@ -15329,7 +15271,7 @@
         <v>114</v>
       </c>
       <c r="K297" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L297" t="n">
         <v>193.8</v>
@@ -15380,7 +15322,7 @@
         <v>115</v>
       </c>
       <c r="K298" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L298" t="n">
         <v>193.8</v>
@@ -15431,7 +15373,7 @@
         <v>117</v>
       </c>
       <c r="K299" t="n">
-        <v>-11.11111111111111</v>
+        <v>-60</v>
       </c>
       <c r="L299" t="n">
         <v>193.5</v>
@@ -15482,7 +15424,7 @@
         <v>119</v>
       </c>
       <c r="K300" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>193.4</v>
@@ -15533,7 +15475,7 @@
         <v>120</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L301" t="n">
         <v>193.3</v>
@@ -15584,7 +15526,7 @@
         <v>122</v>
       </c>
       <c r="K302" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L302" t="n">
         <v>193.4</v>
@@ -15635,7 +15577,7 @@
         <v>122</v>
       </c>
       <c r="K303" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L303" t="n">
         <v>193.5</v>
@@ -15686,7 +15628,7 @@
         <v>124</v>
       </c>
       <c r="K304" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>193.5</v>
@@ -15737,7 +15679,7 @@
         <v>125</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L305" t="n">
         <v>193.6</v>
@@ -15788,7 +15730,7 @@
         <v>125</v>
       </c>
       <c r="K306" t="n">
-        <v>-6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L306" t="n">
         <v>193.7</v>
@@ -15890,7 +15832,7 @@
         <v>126</v>
       </c>
       <c r="K308" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L308" t="n">
         <v>193.7</v>
@@ -15941,7 +15883,7 @@
         <v>127</v>
       </c>
       <c r="K309" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>193.9</v>
@@ -15992,7 +15934,7 @@
         <v>127</v>
       </c>
       <c r="K310" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L310" t="n">
         <v>193.9</v>
@@ -16043,7 +15985,7 @@
         <v>128</v>
       </c>
       <c r="K311" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>194.1</v>
@@ -16094,7 +16036,7 @@
         <v>129</v>
       </c>
       <c r="K312" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L312" t="n">
         <v>194.2</v>
@@ -16145,7 +16087,7 @@
         <v>129</v>
       </c>
       <c r="K313" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="L313" t="n">
         <v>194.3</v>
@@ -16196,7 +16138,7 @@
         <v>130</v>
       </c>
       <c r="K314" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L314" t="n">
         <v>194.5</v>

--- a/BackTest/2019-10-25 BackTest KNC.xlsx
+++ b/BackTest/2019-10-25 BackTest KNC.xlsx
@@ -4581,13 +4581,17 @@
         <v>188.25</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>187</v>
+      </c>
+      <c r="K120" t="n">
+        <v>187</v>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
@@ -4622,8 +4626,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>187</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4661,22 @@
         <v>188.1833333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>187</v>
+      </c>
+      <c r="K122" t="n">
+        <v>187</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4721,17 +4739,13 @@
         <v>188.1166666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>187</v>
-      </c>
-      <c r="K124" t="n">
-        <v>187</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
@@ -4760,22 +4774,14 @@
         <v>188.0833333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>187</v>
-      </c>
-      <c r="K125" t="n">
-        <v>187</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4803,22 +4809,14 @@
         <v>188.05</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>187</v>
-      </c>
-      <c r="K126" t="n">
-        <v>187</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4854,9 +4852,7 @@
       <c r="J127" t="n">
         <v>187</v>
       </c>
-      <c r="K127" t="n">
-        <v>187</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4895,11 +4891,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>186</v>
-      </c>
-      <c r="K128" t="n">
-        <v>187</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,9 +4934,7 @@
       <c r="J129" t="n">
         <v>186</v>
       </c>
-      <c r="K129" t="n">
-        <v>187</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4983,9 +4975,7 @@
       <c r="J130" t="n">
         <v>186</v>
       </c>
-      <c r="K130" t="n">
-        <v>187</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,17 +5008,13 @@
         <v>187.8166666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>187</v>
-      </c>
-      <c r="K131" t="n">
-        <v>187</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5061,17 +5047,13 @@
         <v>187.8</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>188</v>
-      </c>
-      <c r="K132" t="n">
-        <v>187</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5104,17 +5086,13 @@
         <v>187.75</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>188</v>
-      </c>
-      <c r="K133" t="n">
-        <v>187</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5147,17 +5125,13 @@
         <v>187.7333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>188</v>
-      </c>
-      <c r="K134" t="n">
-        <v>187</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,17 +5164,13 @@
         <v>187.7</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>186</v>
-      </c>
-      <c r="K135" t="n">
-        <v>187</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5239,11 +5209,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>188</v>
-      </c>
-      <c r="K136" t="n">
-        <v>187</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5276,17 +5244,13 @@
         <v>187.6833333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>188</v>
-      </c>
-      <c r="K137" t="n">
-        <v>187</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,17 +5283,13 @@
         <v>187.6833333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>188</v>
-      </c>
-      <c r="K138" t="n">
-        <v>187</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5362,17 +5322,13 @@
         <v>187.6833333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>189</v>
-      </c>
-      <c r="K139" t="n">
-        <v>187</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5411,9 +5367,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>187</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5452,9 +5406,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>187</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,9 +5445,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>187</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5534,9 +5484,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>187</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5575,9 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>187</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5616,9 +5562,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>187</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5657,9 +5601,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>187</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,9 +5640,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>187</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5739,9 +5679,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>187</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5780,9 +5718,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>187</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5821,9 +5757,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>187</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5859,20 +5793,16 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>187</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5900,17 +5830,11 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>187</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5944,14 +5868,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>187</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5985,14 +5903,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>187</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6026,14 +5938,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>187</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6067,14 +5973,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>187</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6108,14 +6008,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>187</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6149,14 +6043,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>187</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6190,14 +6078,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>187</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6231,14 +6113,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>187</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6272,14 +6148,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>187</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6313,14 +6183,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>187</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6354,14 +6218,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>187</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6395,14 +6253,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>187</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6436,14 +6288,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>187</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6477,14 +6323,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>187</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6518,14 +6358,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>187</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6559,14 +6393,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>187</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6600,14 +6428,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>187</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6641,14 +6463,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>187</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6682,14 +6498,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>187</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6723,14 +6533,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>187</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6764,14 +6568,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>187</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6805,14 +6603,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>187</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6846,14 +6638,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>187</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6887,14 +6673,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>187</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6928,14 +6708,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>187</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6969,14 +6743,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>187</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7004,22 +6772,14 @@
         <v>188.2</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>187</v>
-      </c>
-      <c r="K179" t="n">
-        <v>187</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7047,22 +6807,14 @@
         <v>188.1833333333333</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>186</v>
-      </c>
-      <c r="K180" t="n">
-        <v>187</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7090,22 +6842,14 @@
         <v>188.1833333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>186</v>
-      </c>
-      <c r="K181" t="n">
-        <v>187</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7133,22 +6877,14 @@
         <v>188.1833333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>187</v>
-      </c>
-      <c r="K182" t="n">
-        <v>187</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7182,16 +6918,12 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K183" t="n">
         <v>187</v>
       </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7232,7 +6964,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -7273,7 +7005,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -7303,18 +7035,20 @@
         <v>188.2666666666667</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>189</v>
+      </c>
       <c r="K186" t="n">
         <v>187</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -8167,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
@@ -8175,11 +7909,11 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>1</v>
+        <v>1.011042780748663</v>
       </c>
     </row>
     <row r="208">
@@ -8211,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>187</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8252,14 +7980,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>187</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8293,14 +8015,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>187</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8334,14 +8050,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>187</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8375,14 +8085,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>187</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8416,14 +8120,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>187</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8457,14 +8155,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>187</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8498,14 +8190,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>187</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8539,14 +8225,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>187</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8580,14 +8260,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>187</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8621,14 +8295,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>187</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8662,14 +8330,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>187</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8703,14 +8365,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>187</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8744,14 +8400,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>187</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8785,14 +8435,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>187</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8826,14 +8470,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>187</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8867,14 +8505,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>187</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8908,14 +8540,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>187</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8949,14 +8575,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>187</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8990,14 +8610,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>187</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9031,14 +8645,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>187</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9072,14 +8680,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>187</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9113,14 +8715,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>187</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9154,14 +8750,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>187</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9195,14 +8785,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>187</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9236,14 +8820,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>187</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9277,14 +8855,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>187</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9318,14 +8890,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>187</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9359,14 +8925,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>187</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9400,14 +8960,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>187</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9441,14 +8995,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>187</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9482,14 +9030,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>187</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9523,14 +9065,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>187</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9564,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>187</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9605,14 +9135,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>187</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9646,14 +9170,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>187</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9687,14 +9205,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>187</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9728,14 +9240,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>187</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9769,14 +9275,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>187</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9810,14 +9310,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>187</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9851,14 +9345,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>187</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9892,14 +9380,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>187</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9933,14 +9415,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>187</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9974,14 +9450,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>187</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10015,14 +9485,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>187</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10056,14 +9520,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>187</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10094,17 +9552,11 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>187</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10138,14 +9590,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>187</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10179,14 +9625,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>187</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10220,14 +9660,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>187</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10261,14 +9695,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>187</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10302,14 +9730,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>187</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10343,14 +9765,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>187</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10384,14 +9800,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>187</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10425,14 +9835,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>187</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10466,14 +9870,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>187</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10507,14 +9905,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>187</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10548,14 +9940,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>187</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10589,14 +9975,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>187</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10630,14 +10010,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>187</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10671,14 +10045,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>187</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10709,19 +10077,13 @@
         <v>0</v>
       </c>
       <c r="I269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>187</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
-        <v>1.021737967914439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -10785,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>

--- a/BackTest/2019-10-25 BackTest KNC.xlsx
+++ b/BackTest/2019-10-25 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:M294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
         <v>2286000</v>
       </c>
       <c r="G2" t="n">
-        <v>187.0333333333333</v>
+        <v>187.05</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>187</v>
       </c>
       <c r="F3" t="n">
-        <v>2324151.4536</v>
+        <v>2286000</v>
       </c>
       <c r="G3" t="n">
-        <v>187.0166666666667</v>
+        <v>187.0333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>187</v>
       </c>
       <c r="F4" t="n">
-        <v>2274848.5464</v>
+        <v>2324151.4536</v>
       </c>
       <c r="G4" t="n">
-        <v>187</v>
+        <v>187.0166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>187</v>
       </c>
       <c r="F5" t="n">
-        <v>2268000</v>
+        <v>2274848.5464</v>
       </c>
       <c r="G5" t="n">
-        <v>186.9833333333333</v>
+        <v>187</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>187</v>
       </c>
       <c r="F6" t="n">
-        <v>2295000</v>
+        <v>2268000</v>
       </c>
       <c r="G6" t="n">
         <v>186.9833333333333</v>
@@ -620,7 +620,7 @@
         <v>187</v>
       </c>
       <c r="F7" t="n">
-        <v>2295294.9999</v>
+        <v>2295000</v>
       </c>
       <c r="G7" t="n">
         <v>186.9833333333333</v>
@@ -655,7 +655,7 @@
         <v>187</v>
       </c>
       <c r="F8" t="n">
-        <v>2376000</v>
+        <v>2295294.9999</v>
       </c>
       <c r="G8" t="n">
         <v>186.9833333333333</v>
@@ -690,7 +690,7 @@
         <v>187</v>
       </c>
       <c r="F9" t="n">
-        <v>2313000</v>
+        <v>2376000</v>
       </c>
       <c r="G9" t="n">
         <v>186.9833333333333</v>
@@ -760,7 +760,7 @@
         <v>187</v>
       </c>
       <c r="F11" t="n">
-        <v>2295000</v>
+        <v>2313000</v>
       </c>
       <c r="G11" t="n">
         <v>186.9833333333333</v>
@@ -786,19 +786,19 @@
         <v>187</v>
       </c>
       <c r="C12" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" t="n">
         <v>187</v>
       </c>
       <c r="F12" t="n">
-        <v>1043858.2994</v>
+        <v>2295000</v>
       </c>
       <c r="G12" t="n">
-        <v>187</v>
+        <v>186.9833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D13" t="n">
         <v>188</v>
@@ -830,7 +830,7 @@
         <v>187</v>
       </c>
       <c r="F13" t="n">
-        <v>366800</v>
+        <v>1043858.2994</v>
       </c>
       <c r="G13" t="n">
         <v>187</v>
@@ -853,19 +853,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C14" t="n">
         <v>187</v>
       </c>
       <c r="D14" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E14" t="n">
         <v>187</v>
       </c>
       <c r="F14" t="n">
-        <v>2580000</v>
+        <v>366800</v>
       </c>
       <c r="G14" t="n">
         <v>187</v>
@@ -900,7 +900,7 @@
         <v>187</v>
       </c>
       <c r="F15" t="n">
-        <v>2590000</v>
+        <v>2580000</v>
       </c>
       <c r="G15" t="n">
         <v>187</v>
@@ -935,7 +935,7 @@
         <v>187</v>
       </c>
       <c r="F16" t="n">
-        <v>2610000</v>
+        <v>2590000</v>
       </c>
       <c r="G16" t="n">
         <v>187</v>
@@ -970,7 +970,7 @@
         <v>187</v>
       </c>
       <c r="F17" t="n">
-        <v>1970000</v>
+        <v>2610000</v>
       </c>
       <c r="G17" t="n">
         <v>187</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" t="n">
-        <v>398016.9946</v>
+        <v>1970000</v>
       </c>
       <c r="G18" t="n">
-        <v>187.0333333333333</v>
+        <v>187</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>188</v>
       </c>
       <c r="F19" t="n">
-        <v>689118</v>
+        <v>398016.9946</v>
       </c>
       <c r="G19" t="n">
-        <v>187.05</v>
+        <v>187.0333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>188</v>
       </c>
       <c r="F20" t="n">
-        <v>691789</v>
+        <v>689118</v>
       </c>
       <c r="G20" t="n">
-        <v>187.0666666666667</v>
+        <v>187.05</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>188</v>
       </c>
       <c r="F21" t="n">
-        <v>491464</v>
+        <v>691789</v>
       </c>
       <c r="G21" t="n">
-        <v>187.0833333333333</v>
+        <v>187.0666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>188</v>
       </c>
       <c r="F22" t="n">
-        <v>1379025.1023</v>
+        <v>491464</v>
       </c>
       <c r="G22" t="n">
-        <v>187.1</v>
+        <v>187.0833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>188</v>
       </c>
       <c r="F23" t="n">
-        <v>1431490</v>
+        <v>1379025.1023</v>
       </c>
       <c r="G23" t="n">
-        <v>187.1166666666667</v>
+        <v>187.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>188</v>
       </c>
       <c r="F24" t="n">
-        <v>1459340</v>
+        <v>1431490</v>
       </c>
       <c r="G24" t="n">
-        <v>187.1333333333333</v>
+        <v>187.1166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>188</v>
       </c>
       <c r="F25" t="n">
-        <v>756649.8977</v>
+        <v>1459340</v>
       </c>
       <c r="G25" t="n">
-        <v>187.15</v>
+        <v>187.1333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>188</v>
       </c>
       <c r="F26" t="n">
-        <v>1717965.21</v>
+        <v>756649.8977</v>
       </c>
       <c r="G26" t="n">
-        <v>187.1666666666667</v>
+        <v>187.15</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>188</v>
       </c>
       <c r="F27" t="n">
-        <v>2313000</v>
+        <v>1717965.21</v>
       </c>
       <c r="G27" t="n">
-        <v>187.1833333333333</v>
+        <v>187.1666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>188</v>
       </c>
       <c r="F28" t="n">
-        <v>235709.137</v>
+        <v>2313000</v>
       </c>
       <c r="G28" t="n">
-        <v>187.2</v>
+        <v>187.1833333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>188</v>
       </c>
       <c r="C29" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29" t="n">
         <v>188</v>
       </c>
       <c r="F29" t="n">
-        <v>319883.6548</v>
+        <v>235709.137</v>
       </c>
       <c r="G29" t="n">
-        <v>187.2333333333333</v>
+        <v>187.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" t="n">
         <v>189</v>
@@ -1422,13 +1422,13 @@
         <v>189</v>
       </c>
       <c r="E30" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F30" t="n">
-        <v>774000</v>
+        <v>319883.6548</v>
       </c>
       <c r="G30" t="n">
-        <v>187.2666666666667</v>
+        <v>187.2333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>189</v>
       </c>
       <c r="F31" t="n">
-        <v>786000</v>
+        <v>774000</v>
       </c>
       <c r="G31" t="n">
-        <v>187.3</v>
+        <v>187.2666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>189</v>
       </c>
       <c r="F32" t="n">
-        <v>636000</v>
+        <v>786000</v>
       </c>
       <c r="G32" t="n">
-        <v>187.3333333333333</v>
+        <v>187.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>189</v>
       </c>
       <c r="F33" t="n">
-        <v>1896860</v>
+        <v>636000</v>
       </c>
       <c r="G33" t="n">
-        <v>187.3666666666667</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>189</v>
       </c>
       <c r="F34" t="n">
-        <v>2080315.1752</v>
+        <v>1896860</v>
       </c>
       <c r="G34" t="n">
-        <v>187.4</v>
+        <v>187.3666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>189</v>
       </c>
       <c r="F35" t="n">
-        <v>1124037</v>
+        <v>2080315.1752</v>
       </c>
       <c r="G35" t="n">
-        <v>187.4333333333333</v>
+        <v>187.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" t="n">
         <v>189</v>
       </c>
       <c r="D36" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E36" t="n">
         <v>189</v>
       </c>
       <c r="F36" t="n">
-        <v>77248</v>
+        <v>1124037</v>
       </c>
       <c r="G36" t="n">
-        <v>187.4666666666667</v>
+        <v>187.4333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" t="n">
         <v>189</v>
       </c>
       <c r="D37" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E37" t="n">
         <v>189</v>
       </c>
       <c r="F37" t="n">
-        <v>2498500</v>
+        <v>77248</v>
       </c>
       <c r="G37" t="n">
-        <v>187.5</v>
+        <v>187.4666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>189</v>
       </c>
       <c r="F38" t="n">
-        <v>2508000</v>
+        <v>2498500</v>
       </c>
       <c r="G38" t="n">
-        <v>187.5333333333333</v>
+        <v>187.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>2508000</v>
       </c>
       <c r="G39" t="n">
-        <v>187.5666666666667</v>
+        <v>187.5333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>189</v>
       </c>
       <c r="F40" t="n">
-        <v>2479500</v>
+        <v>2508000</v>
       </c>
       <c r="G40" t="n">
-        <v>187.6</v>
+        <v>187.5666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>189</v>
       </c>
       <c r="F41" t="n">
-        <v>2517500</v>
+        <v>2479500</v>
       </c>
       <c r="G41" t="n">
-        <v>187.6333333333333</v>
+        <v>187.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>189</v>
       </c>
       <c r="F42" t="n">
-        <v>2508000</v>
+        <v>2517500</v>
       </c>
       <c r="G42" t="n">
-        <v>187.6666666666667</v>
+        <v>187.6333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>189</v>
       </c>
       <c r="F43" t="n">
-        <v>2498500</v>
+        <v>2508000</v>
       </c>
       <c r="G43" t="n">
-        <v>187.7</v>
+        <v>187.6666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>189</v>
       </c>
       <c r="F44" t="n">
-        <v>2489836.9835</v>
+        <v>2498500</v>
       </c>
       <c r="G44" t="n">
-        <v>187.7333333333333</v>
+        <v>187.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>189</v>
       </c>
       <c r="F45" t="n">
-        <v>2508000</v>
+        <v>2489836.9835</v>
       </c>
       <c r="G45" t="n">
-        <v>187.7666666666667</v>
+        <v>187.7333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>189</v>
       </c>
       <c r="F46" t="n">
-        <v>2509025.5076</v>
+        <v>2508000</v>
       </c>
       <c r="G46" t="n">
-        <v>187.8</v>
+        <v>187.7666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>189</v>
       </c>
       <c r="F47" t="n">
-        <v>2498500</v>
+        <v>2509025.5076</v>
       </c>
       <c r="G47" t="n">
-        <v>187.8333333333333</v>
+        <v>187.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>189</v>
       </c>
       <c r="F48" t="n">
-        <v>2527000</v>
+        <v>2498500</v>
       </c>
       <c r="G48" t="n">
-        <v>187.8666666666667</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>189</v>
       </c>
       <c r="F49" t="n">
-        <v>598609.5101</v>
+        <v>2527000</v>
       </c>
       <c r="G49" t="n">
-        <v>187.9</v>
+        <v>187.8666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>189</v>
       </c>
       <c r="F50" t="n">
-        <v>2547837.0422</v>
+        <v>598609.5101</v>
       </c>
       <c r="G50" t="n">
-        <v>187.9333333333333</v>
+        <v>187.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>189</v>
       </c>
       <c r="F51" t="n">
-        <v>2517500</v>
+        <v>2547837.0422</v>
       </c>
       <c r="G51" t="n">
-        <v>187.9666666666667</v>
+        <v>187.9333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>189</v>
       </c>
       <c r="F52" t="n">
-        <v>2558204</v>
+        <v>2517500</v>
       </c>
       <c r="G52" t="n">
-        <v>188</v>
+        <v>187.9666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>189</v>
       </c>
       <c r="F53" t="n">
-        <v>2524296</v>
+        <v>2558204</v>
       </c>
       <c r="G53" t="n">
-        <v>188.0333333333333</v>
+        <v>188</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>189</v>
       </c>
       <c r="F54" t="n">
-        <v>2536500</v>
+        <v>2524296</v>
       </c>
       <c r="G54" t="n">
-        <v>188.0666666666667</v>
+        <v>188.0333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>189</v>
       </c>
       <c r="F55" t="n">
-        <v>2530614.4335</v>
+        <v>2536500</v>
       </c>
       <c r="G55" t="n">
-        <v>188.1</v>
+        <v>188.0666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>189</v>
       </c>
       <c r="F56" t="n">
-        <v>1710000</v>
+        <v>2530614.4335</v>
       </c>
       <c r="G56" t="n">
-        <v>188.1333333333333</v>
+        <v>188.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C57" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D57" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E57" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F57" t="n">
-        <v>1823163</v>
+        <v>1710000</v>
       </c>
       <c r="G57" t="n">
-        <v>188.15</v>
+        <v>188.1333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>188</v>
       </c>
       <c r="F58" t="n">
-        <v>1012323</v>
+        <v>1823163</v>
       </c>
       <c r="G58" t="n">
-        <v>188.1666666666667</v>
+        <v>188.15</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E59" t="n">
         <v>188</v>
       </c>
       <c r="F59" t="n">
-        <v>869721.4577</v>
+        <v>1012323</v>
       </c>
       <c r="G59" t="n">
-        <v>188.2</v>
+        <v>188.1666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2472,13 +2472,13 @@
         <v>189</v>
       </c>
       <c r="E60" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F60" t="n">
-        <v>978622</v>
+        <v>869721.4577</v>
       </c>
       <c r="G60" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>189</v>
       </c>
       <c r="F61" t="n">
-        <v>971346</v>
+        <v>978622</v>
       </c>
       <c r="G61" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>189</v>
       </c>
       <c r="F62" t="n">
-        <v>978622</v>
+        <v>971346</v>
       </c>
       <c r="G62" t="n">
-        <v>188.3</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>189</v>
       </c>
       <c r="F63" t="n">
-        <v>956794</v>
+        <v>978622</v>
       </c>
       <c r="G63" t="n">
-        <v>188.3333333333333</v>
+        <v>188.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>189</v>
       </c>
       <c r="F64" t="n">
-        <v>978622</v>
+        <v>956794</v>
       </c>
       <c r="G64" t="n">
-        <v>188.3666666666667</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>189</v>
       </c>
       <c r="F65" t="n">
-        <v>967708</v>
+        <v>978622</v>
       </c>
       <c r="G65" t="n">
-        <v>188.4</v>
+        <v>188.3666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>189</v>
       </c>
       <c r="F66" t="n">
-        <v>974984</v>
+        <v>967708</v>
       </c>
       <c r="G66" t="n">
-        <v>188.4333333333333</v>
+        <v>188.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>189</v>
       </c>
       <c r="F67" t="n">
-        <v>978622</v>
+        <v>974984</v>
       </c>
       <c r="G67" t="n">
-        <v>188.4666666666667</v>
+        <v>188.4333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>189</v>
       </c>
       <c r="F68" t="n">
-        <v>956794</v>
+        <v>978622</v>
       </c>
       <c r="G68" t="n">
-        <v>188.5</v>
+        <v>188.4666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>189</v>
       </c>
       <c r="F69" t="n">
-        <v>829464</v>
+        <v>956794</v>
       </c>
       <c r="G69" t="n">
-        <v>188.5333333333333</v>
+        <v>188.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>189</v>
       </c>
       <c r="F70" t="n">
-        <v>1222499.9999</v>
+        <v>829464</v>
       </c>
       <c r="G70" t="n">
-        <v>188.5666666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>189</v>
       </c>
       <c r="F71" t="n">
-        <v>1980000</v>
+        <v>1222499.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>188.6</v>
+        <v>188.5666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>189</v>
       </c>
       <c r="F72" t="n">
-        <v>1980000.0001</v>
+        <v>1980000</v>
       </c>
       <c r="G72" t="n">
-        <v>188.6166666666667</v>
+        <v>188.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>189</v>
       </c>
       <c r="F73" t="n">
-        <v>2010000</v>
+        <v>1980000.0001</v>
       </c>
       <c r="G73" t="n">
-        <v>188.65</v>
+        <v>188.6166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>189</v>
       </c>
       <c r="F74" t="n">
-        <v>2032499.9999</v>
+        <v>2010000</v>
       </c>
       <c r="G74" t="n">
-        <v>188.6833333333333</v>
+        <v>188.65</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>189</v>
       </c>
       <c r="F75" t="n">
-        <v>1987500.0001</v>
+        <v>2032499.9999</v>
       </c>
       <c r="G75" t="n">
-        <v>188.7166666666667</v>
+        <v>188.6833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>189</v>
       </c>
       <c r="F76" t="n">
-        <v>2002499.9999</v>
+        <v>1987500.0001</v>
       </c>
       <c r="G76" t="n">
-        <v>188.75</v>
+        <v>188.7166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>189</v>
       </c>
       <c r="F77" t="n">
-        <v>2010000</v>
+        <v>2002499.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>188.7833333333333</v>
+        <v>188.75</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>189</v>
       </c>
       <c r="F78" t="n">
-        <v>1987500.0001</v>
+        <v>2010000</v>
       </c>
       <c r="G78" t="n">
-        <v>188.8</v>
+        <v>188.7833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>189</v>
       </c>
       <c r="F79" t="n">
-        <v>2017499.9999</v>
+        <v>1987500.0001</v>
       </c>
       <c r="G79" t="n">
-        <v>188.8166666666667</v>
+        <v>188.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>189</v>
       </c>
       <c r="F80" t="n">
-        <v>2040000.0001</v>
+        <v>2017499.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>188.8333333333333</v>
+        <v>188.8166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>189</v>
       </c>
       <c r="F81" t="n">
-        <v>2047499.9999</v>
+        <v>2040000.0001</v>
       </c>
       <c r="G81" t="n">
-        <v>188.85</v>
+        <v>188.8333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>189</v>
       </c>
       <c r="F82" t="n">
-        <v>1687500</v>
+        <v>2047499.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>188.8666666666667</v>
+        <v>188.85</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>189</v>
       </c>
       <c r="C83" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D83" t="n">
         <v>189</v>
       </c>
       <c r="E83" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F83" t="n">
-        <v>652676.5519</v>
+        <v>1687500</v>
       </c>
       <c r="G83" t="n">
         <v>188.8666666666667</v>
@@ -3303,19 +3303,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C84" t="n">
         <v>188</v>
       </c>
       <c r="D84" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E84" t="n">
         <v>188</v>
       </c>
       <c r="F84" t="n">
-        <v>237.7608</v>
+        <v>652676.5519</v>
       </c>
       <c r="G84" t="n">
         <v>188.8666666666667</v>
@@ -3350,7 +3350,7 @@
         <v>188</v>
       </c>
       <c r="F85" t="n">
-        <v>837000</v>
+        <v>237.7608</v>
       </c>
       <c r="G85" t="n">
         <v>188.8666666666667</v>
@@ -3385,7 +3385,7 @@
         <v>188</v>
       </c>
       <c r="F86" t="n">
-        <v>2412000</v>
+        <v>837000</v>
       </c>
       <c r="G86" t="n">
         <v>188.8666666666667</v>
@@ -3420,7 +3420,7 @@
         <v>188</v>
       </c>
       <c r="F87" t="n">
-        <v>2421000</v>
+        <v>2412000</v>
       </c>
       <c r="G87" t="n">
         <v>188.8666666666667</v>
@@ -3455,7 +3455,7 @@
         <v>188</v>
       </c>
       <c r="F88" t="n">
-        <v>2403000</v>
+        <v>2421000</v>
       </c>
       <c r="G88" t="n">
         <v>188.8666666666667</v>
@@ -3490,10 +3490,10 @@
         <v>188</v>
       </c>
       <c r="F89" t="n">
-        <v>2439000</v>
+        <v>2403000</v>
       </c>
       <c r="G89" t="n">
-        <v>188.85</v>
+        <v>188.8666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>188</v>
       </c>
       <c r="F90" t="n">
-        <v>2421336.6106</v>
+        <v>2439000</v>
       </c>
       <c r="G90" t="n">
-        <v>188.8333333333333</v>
+        <v>188.85</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>188</v>
       </c>
       <c r="F91" t="n">
-        <v>2385000</v>
+        <v>2421336.6106</v>
       </c>
       <c r="G91" t="n">
-        <v>188.8166666666667</v>
+        <v>188.8333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>188</v>
       </c>
       <c r="F92" t="n">
-        <v>2412169.5744</v>
+        <v>2385000</v>
       </c>
       <c r="G92" t="n">
-        <v>188.8</v>
+        <v>188.8166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>188</v>
       </c>
       <c r="F93" t="n">
-        <v>2429493.815</v>
+        <v>2412169.5744</v>
       </c>
       <c r="G93" t="n">
-        <v>188.7833333333333</v>
+        <v>188.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>188</v>
       </c>
       <c r="F94" t="n">
-        <v>2439000</v>
+        <v>2429493.815</v>
       </c>
       <c r="G94" t="n">
-        <v>188.7666666666667</v>
+        <v>188.7833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>188</v>
       </c>
       <c r="F95" t="n">
-        <v>2369165.1244</v>
+        <v>2439000</v>
       </c>
       <c r="G95" t="n">
-        <v>188.75</v>
+        <v>188.7666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>188</v>
       </c>
       <c r="F96" t="n">
-        <v>1683000</v>
+        <v>2369165.1244</v>
       </c>
       <c r="G96" t="n">
-        <v>188.7333333333333</v>
+        <v>188.75</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>188</v>
       </c>
       <c r="F97" t="n">
-        <v>511499.6454</v>
+        <v>1683000</v>
       </c>
       <c r="G97" t="n">
-        <v>188.7166666666667</v>
+        <v>188.7333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>188</v>
       </c>
       <c r="F98" t="n">
-        <v>2587508</v>
+        <v>511499.6454</v>
       </c>
       <c r="G98" t="n">
-        <v>188.7</v>
+        <v>188.7166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,19 +3840,23 @@
         <v>188</v>
       </c>
       <c r="F99" t="n">
-        <v>2581095.4863</v>
+        <v>2587508</v>
       </c>
       <c r="G99" t="n">
-        <v>188.6833333333333</v>
+        <v>188.7</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>188</v>
+      </c>
+      <c r="K99" t="n">
+        <v>188</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -3875,10 +3879,10 @@
         <v>188</v>
       </c>
       <c r="F100" t="n">
-        <v>2613016.5137</v>
+        <v>2581095.4863</v>
       </c>
       <c r="G100" t="n">
-        <v>188.6666666666667</v>
+        <v>188.6833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +3891,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>188</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3910,10 +3920,10 @@
         <v>188</v>
       </c>
       <c r="F101" t="n">
-        <v>2597056</v>
+        <v>2613016.5137</v>
       </c>
       <c r="G101" t="n">
-        <v>188.65</v>
+        <v>188.6666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +3932,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>188</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3945,10 +3961,10 @@
         <v>188</v>
       </c>
       <c r="F102" t="n">
-        <v>2568412</v>
+        <v>2597056</v>
       </c>
       <c r="G102" t="n">
-        <v>188.6333333333333</v>
+        <v>188.65</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3996,10 @@
         <v>188</v>
       </c>
       <c r="F103" t="n">
-        <v>2617087</v>
+        <v>2568412</v>
       </c>
       <c r="G103" t="n">
-        <v>188.6166666666667</v>
+        <v>188.6333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4031,10 @@
         <v>188</v>
       </c>
       <c r="F104" t="n">
-        <v>1472592.4863</v>
+        <v>2617087</v>
       </c>
       <c r="G104" t="n">
-        <v>188.6</v>
+        <v>188.6166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4066,10 @@
         <v>188</v>
       </c>
       <c r="F105" t="n">
-        <v>1011000</v>
+        <v>1472592.4863</v>
       </c>
       <c r="G105" t="n">
-        <v>188.5833333333333</v>
+        <v>188.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,19 +4101,23 @@
         <v>188</v>
       </c>
       <c r="F106" t="n">
-        <v>1000000</v>
+        <v>1011000</v>
       </c>
       <c r="G106" t="n">
-        <v>188.5666666666667</v>
+        <v>188.5833333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>188</v>
+      </c>
+      <c r="K106" t="n">
+        <v>188</v>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4120,20 +4140,28 @@
         <v>188</v>
       </c>
       <c r="F107" t="n">
-        <v>1275000</v>
+        <v>1000000</v>
       </c>
       <c r="G107" t="n">
-        <v>188.55</v>
+        <v>188.5666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>188</v>
+      </c>
+      <c r="K107" t="n">
+        <v>188</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4155,20 +4183,28 @@
         <v>188</v>
       </c>
       <c r="F108" t="n">
-        <v>451500</v>
+        <v>1275000</v>
       </c>
       <c r="G108" t="n">
-        <v>188.5333333333333</v>
+        <v>188.55</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>188</v>
+      </c>
+      <c r="K108" t="n">
+        <v>188</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4190,19 +4226,23 @@
         <v>188</v>
       </c>
       <c r="F109" t="n">
-        <v>1219500</v>
+        <v>451500</v>
       </c>
       <c r="G109" t="n">
-        <v>188.5166666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>188</v>
+      </c>
+      <c r="K109" t="n">
+        <v>188</v>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
@@ -4225,20 +4265,28 @@
         <v>188</v>
       </c>
       <c r="F110" t="n">
-        <v>1210500</v>
+        <v>1219500</v>
       </c>
       <c r="G110" t="n">
-        <v>188.5</v>
+        <v>188.5166666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>188</v>
+      </c>
+      <c r="K110" t="n">
+        <v>188</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4260,10 +4308,10 @@
         <v>188</v>
       </c>
       <c r="F111" t="n">
-        <v>1219500</v>
+        <v>1210500</v>
       </c>
       <c r="G111" t="n">
-        <v>188.4833333333333</v>
+        <v>188.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4320,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>188</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4295,10 +4349,10 @@
         <v>188</v>
       </c>
       <c r="F112" t="n">
-        <v>922500</v>
+        <v>1219500</v>
       </c>
       <c r="G112" t="n">
-        <v>188.4666666666667</v>
+        <v>188.4833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4384,10 @@
         <v>188</v>
       </c>
       <c r="F113" t="n">
-        <v>850266.7811</v>
+        <v>922500</v>
       </c>
       <c r="G113" t="n">
-        <v>188.45</v>
+        <v>188.4666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4410,19 @@
         <v>188</v>
       </c>
       <c r="C114" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D114" t="n">
         <v>188</v>
       </c>
       <c r="E114" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F114" t="n">
-        <v>337596</v>
+        <v>850266.7811</v>
       </c>
       <c r="G114" t="n">
-        <v>188.4166666666667</v>
+        <v>188.45</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4442,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C115" t="n">
         <v>187</v>
       </c>
       <c r="D115" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E115" t="n">
         <v>187</v>
       </c>
       <c r="F115" t="n">
-        <v>1347.9534</v>
+        <v>337596</v>
       </c>
       <c r="G115" t="n">
-        <v>188.3833333333333</v>
+        <v>188.4166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4489,10 @@
         <v>187</v>
       </c>
       <c r="F116" t="n">
-        <v>2953.6399</v>
+        <v>1347.9534</v>
       </c>
       <c r="G116" t="n">
-        <v>188.35</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4524,10 @@
         <v>187</v>
       </c>
       <c r="F117" t="n">
-        <v>342.9996</v>
+        <v>2953.6399</v>
       </c>
       <c r="G117" t="n">
-        <v>188.3333333333333</v>
+        <v>188.35</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,19 +4559,23 @@
         <v>187</v>
       </c>
       <c r="F118" t="n">
-        <v>1027.2035</v>
+        <v>342.9996</v>
       </c>
       <c r="G118" t="n">
-        <v>188.3166666666667</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>187</v>
+      </c>
+      <c r="K118" t="n">
+        <v>187</v>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
@@ -4540,10 +4598,10 @@
         <v>187</v>
       </c>
       <c r="F119" t="n">
-        <v>3911.7498</v>
+        <v>1027.2035</v>
       </c>
       <c r="G119" t="n">
-        <v>188.2833333333333</v>
+        <v>188.3166666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,8 +4610,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>187</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4575,24 +4639,26 @@
         <v>187</v>
       </c>
       <c r="F120" t="n">
-        <v>780.476</v>
+        <v>3911.7498</v>
       </c>
       <c r="G120" t="n">
-        <v>188.25</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>187</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
         <v>187</v>
       </c>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4614,104 +4680,100 @@
         <v>187</v>
       </c>
       <c r="F121" t="n">
+        <v>780.476</v>
+      </c>
+      <c r="G121" t="n">
+        <v>188.25</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>187</v>
+      </c>
+      <c r="C122" t="n">
+        <v>187</v>
+      </c>
+      <c r="D122" t="n">
+        <v>187</v>
+      </c>
+      <c r="E122" t="n">
+        <v>187</v>
+      </c>
+      <c r="F122" t="n">
         <v>5.9993</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G122" t="n">
         <v>188.2166666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>187</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>187</v>
+      </c>
+      <c r="K122" t="n">
+        <v>187</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>187</v>
+      </c>
+      <c r="C123" t="n">
+        <v>187</v>
+      </c>
+      <c r="D123" t="n">
+        <v>187</v>
+      </c>
+      <c r="E123" t="n">
+        <v>187</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2769</v>
+      </c>
+      <c r="G123" t="n">
+        <v>188.1833333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>187</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>187</v>
-      </c>
-      <c r="C122" t="n">
-        <v>187</v>
-      </c>
-      <c r="D122" t="n">
-        <v>187</v>
-      </c>
-      <c r="E122" t="n">
-        <v>187</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2769</v>
-      </c>
-      <c r="G122" t="n">
-        <v>188.1833333333333</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>187</v>
-      </c>
-      <c r="K122" t="n">
-        <v>187</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>186</v>
-      </c>
-      <c r="C123" t="n">
-        <v>187</v>
-      </c>
-      <c r="D123" t="n">
-        <v>187</v>
-      </c>
-      <c r="E123" t="n">
-        <v>186</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3096.0258</v>
-      </c>
-      <c r="G123" t="n">
-        <v>188.15</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4721,7 +4783,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C124" t="n">
         <v>187</v>
@@ -4730,13 +4792,13 @@
         <v>187</v>
       </c>
       <c r="E124" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F124" t="n">
-        <v>4663.3509</v>
+        <v>3096.0258</v>
       </c>
       <c r="G124" t="n">
-        <v>188.1166666666667</v>
+        <v>188.15</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4745,8 +4807,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>187</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4768,20 +4836,28 @@
         <v>187</v>
       </c>
       <c r="F125" t="n">
-        <v>1011.0365</v>
+        <v>4663.3509</v>
       </c>
       <c r="G125" t="n">
-        <v>188.0833333333333</v>
+        <v>188.1166666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>187</v>
+      </c>
+      <c r="K125" t="n">
+        <v>187</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4803,10 +4879,10 @@
         <v>187</v>
       </c>
       <c r="F126" t="n">
-        <v>585</v>
+        <v>1011.0365</v>
       </c>
       <c r="G126" t="n">
-        <v>188.05</v>
+        <v>188.0833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4815,8 +4891,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>187</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4829,33 +4911,33 @@
         <v>187</v>
       </c>
       <c r="C127" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D127" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E127" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F127" t="n">
-        <v>18106.2161</v>
+        <v>585</v>
       </c>
       <c r="G127" t="n">
-        <v>188.0333333333333</v>
+        <v>188.05</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>187</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>187</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -4867,33 +4949,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C128" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D128" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E128" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F128" t="n">
-        <v>954.6634</v>
+        <v>18106.2161</v>
       </c>
       <c r="G128" t="n">
-        <v>187.9833333333333</v>
+        <v>188.0333333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>188</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>187</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4920,21 +5002,21 @@
         <v>186</v>
       </c>
       <c r="F129" t="n">
-        <v>349.2527</v>
+        <v>954.6634</v>
       </c>
       <c r="G129" t="n">
-        <v>187.9333333333333</v>
+        <v>187.9833333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>186</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>187</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4961,21 +5043,21 @@
         <v>186</v>
       </c>
       <c r="F130" t="n">
-        <v>985</v>
+        <v>349.2527</v>
       </c>
       <c r="G130" t="n">
-        <v>187.8833333333333</v>
+        <v>187.9333333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>186</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>187</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4990,22 +5072,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C131" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D131" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E131" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F131" t="n">
-        <v>28800.2359</v>
+        <v>985</v>
       </c>
       <c r="G131" t="n">
-        <v>187.8166666666667</v>
+        <v>187.8833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5014,7 +5096,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>187</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5029,22 +5113,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C132" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D132" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E132" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F132" t="n">
-        <v>60.5531</v>
+        <v>28800.2359</v>
       </c>
       <c r="G132" t="n">
-        <v>187.8</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5053,7 +5137,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>187</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5071,19 +5157,19 @@
         <v>188</v>
       </c>
       <c r="C133" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D133" t="n">
         <v>188</v>
       </c>
       <c r="E133" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F133" t="n">
-        <v>28900.8029</v>
+        <v>60.5531</v>
       </c>
       <c r="G133" t="n">
-        <v>187.75</v>
+        <v>187.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5092,7 +5178,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>187</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,19 +5198,19 @@
         <v>188</v>
       </c>
       <c r="C134" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D134" t="n">
         <v>188</v>
       </c>
       <c r="E134" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F134" t="n">
-        <v>3400</v>
+        <v>28900.8029</v>
       </c>
       <c r="G134" t="n">
-        <v>187.7333333333333</v>
+        <v>187.75</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5131,7 +5219,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>187</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5146,22 +5236,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C135" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D135" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E135" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F135" t="n">
-        <v>503.3971</v>
+        <v>3400</v>
       </c>
       <c r="G135" t="n">
-        <v>187.7</v>
+        <v>187.7333333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5170,7 +5260,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>187</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5185,33 +5277,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C136" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D136" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E136" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F136" t="n">
-        <v>3316</v>
+        <v>503.3971</v>
       </c>
       <c r="G136" t="n">
-        <v>187.6833333333333</v>
+        <v>187.7</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>187</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>187</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5229,16 +5321,16 @@
         <v>188</v>
       </c>
       <c r="C137" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D137" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E137" t="n">
         <v>188</v>
       </c>
       <c r="F137" t="n">
-        <v>8523.2199</v>
+        <v>3316</v>
       </c>
       <c r="G137" t="n">
         <v>187.6833333333333</v>
@@ -5250,7 +5342,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>187</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5277,7 +5371,7 @@
         <v>188</v>
       </c>
       <c r="F138" t="n">
-        <v>4038.305</v>
+        <v>8523.2199</v>
       </c>
       <c r="G138" t="n">
         <v>187.6833333333333</v>
@@ -5289,7 +5383,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>187</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5304,7 +5400,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C139" t="n">
         <v>189</v>
@@ -5313,10 +5409,10 @@
         <v>189</v>
       </c>
       <c r="E139" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F139" t="n">
-        <v>2.4232</v>
+        <v>4038.305</v>
       </c>
       <c r="G139" t="n">
         <v>187.6833333333333</v>
@@ -5328,7 +5424,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>187</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5355,7 +5453,7 @@
         <v>189</v>
       </c>
       <c r="F140" t="n">
-        <v>4627.0373</v>
+        <v>2.4232</v>
       </c>
       <c r="G140" t="n">
         <v>187.6833333333333</v>
@@ -5367,7 +5465,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>187</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5394,7 +5494,7 @@
         <v>189</v>
       </c>
       <c r="F141" t="n">
-        <v>3044.16</v>
+        <v>4627.0373</v>
       </c>
       <c r="G141" t="n">
         <v>187.6833333333333</v>
@@ -5406,7 +5506,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>187</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5433,7 +5535,7 @@
         <v>189</v>
       </c>
       <c r="F142" t="n">
-        <v>84.9008</v>
+        <v>3044.16</v>
       </c>
       <c r="G142" t="n">
         <v>187.6833333333333</v>
@@ -5445,7 +5547,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>187</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5472,10 +5576,10 @@
         <v>189</v>
       </c>
       <c r="F143" t="n">
-        <v>13.9534</v>
+        <v>84.9008</v>
       </c>
       <c r="G143" t="n">
-        <v>187.7</v>
+        <v>187.6833333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5484,7 +5588,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>187</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5499,22 +5605,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C144" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D144" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E144" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F144" t="n">
-        <v>177.7926</v>
+        <v>13.9534</v>
       </c>
       <c r="G144" t="n">
-        <v>187.7333333333333</v>
+        <v>187.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5523,7 +5629,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>187</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5550,10 +5658,10 @@
         <v>190</v>
       </c>
       <c r="F145" t="n">
-        <v>75.563</v>
+        <v>177.7926</v>
       </c>
       <c r="G145" t="n">
-        <v>187.7666666666667</v>
+        <v>187.7333333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5562,7 +5670,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>187</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5577,22 +5687,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C146" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D146" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E146" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F146" t="n">
-        <v>2941.6125</v>
+        <v>75.563</v>
       </c>
       <c r="G146" t="n">
-        <v>187.8166666666667</v>
+        <v>187.7666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5601,7 +5711,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>187</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5616,22 +5728,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C147" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D147" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E147" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F147" t="n">
-        <v>235.9364</v>
+        <v>2941.6125</v>
       </c>
       <c r="G147" t="n">
-        <v>187.85</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5640,7 +5752,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>187</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5667,10 +5781,10 @@
         <v>190</v>
       </c>
       <c r="F148" t="n">
-        <v>397.5473</v>
+        <v>235.9364</v>
       </c>
       <c r="G148" t="n">
-        <v>187.8833333333333</v>
+        <v>187.85</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5679,7 +5793,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>187</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5694,22 +5810,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C149" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D149" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E149" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>397.5473</v>
       </c>
       <c r="G149" t="n">
-        <v>187.9333333333333</v>
+        <v>187.8833333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5718,7 +5834,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>187</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5745,10 +5863,10 @@
         <v>191</v>
       </c>
       <c r="F150" t="n">
-        <v>5558.1413</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>187.9833333333333</v>
+        <v>187.9333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5757,7 +5875,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>187</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5784,32 +5904,36 @@
         <v>191</v>
       </c>
       <c r="F151" t="n">
-        <v>7804.0497</v>
+        <v>5558.1413</v>
       </c>
       <c r="G151" t="n">
-        <v>188.0333333333333</v>
+        <v>187.9833333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>187</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C152" t="n">
         <v>191</v>
@@ -5818,23 +5942,29 @@
         <v>191</v>
       </c>
       <c r="E152" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F152" t="n">
-        <v>5135.8185</v>
+        <v>7804.0497</v>
       </c>
       <c r="G152" t="n">
-        <v>188.0833333333333</v>
+        <v>188.0333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>187</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5844,22 +5974,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C153" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D153" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E153" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F153" t="n">
-        <v>231.0187</v>
+        <v>5135.8185</v>
       </c>
       <c r="G153" t="n">
-        <v>188.1166666666667</v>
+        <v>188.0833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5868,8 +5998,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>187</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5879,22 +6015,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C154" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D154" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E154" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F154" t="n">
-        <v>6691.1874</v>
+        <v>231.0187</v>
       </c>
       <c r="G154" t="n">
-        <v>188.1333333333333</v>
+        <v>188.1166666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5903,8 +6039,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>187</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5914,22 +6056,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C155" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D155" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E155" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F155" t="n">
-        <v>8882.983899999999</v>
+        <v>6691.1874</v>
       </c>
       <c r="G155" t="n">
-        <v>188.1833333333333</v>
+        <v>188.1333333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5938,8 +6080,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>187</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5949,22 +6097,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C156" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D156" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E156" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F156" t="n">
-        <v>2136.79</v>
+        <v>8882.983899999999</v>
       </c>
       <c r="G156" t="n">
-        <v>188.2</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5973,8 +6121,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>187</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5984,22 +6138,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C157" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D157" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E157" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>2136.79</v>
       </c>
       <c r="G157" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6008,8 +6162,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>187</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6019,22 +6179,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C158" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D158" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E158" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F158" t="n">
-        <v>901.1508</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>188.25</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6043,8 +6203,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>187</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6066,10 +6232,10 @@
         <v>189</v>
       </c>
       <c r="F159" t="n">
-        <v>2550</v>
+        <v>901.1508</v>
       </c>
       <c r="G159" t="n">
-        <v>188.2666666666667</v>
+        <v>188.25</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6078,8 +6244,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>187</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6101,10 +6273,10 @@
         <v>189</v>
       </c>
       <c r="F160" t="n">
-        <v>3550</v>
+        <v>2550</v>
       </c>
       <c r="G160" t="n">
-        <v>188.2833333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6113,8 +6285,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>187</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6124,19 +6302,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C161" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D161" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E161" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F161" t="n">
-        <v>6196.2395</v>
+        <v>3550</v>
       </c>
       <c r="G161" t="n">
         <v>188.2833333333333</v>
@@ -6148,8 +6326,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>187</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6168,10 +6352,10 @@
         <v>188</v>
       </c>
       <c r="E162" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F162" t="n">
-        <v>195.6125</v>
+        <v>6196.2395</v>
       </c>
       <c r="G162" t="n">
         <v>188.2833333333333</v>
@@ -6183,8 +6367,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>187</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6206,7 +6396,7 @@
         <v>188</v>
       </c>
       <c r="F163" t="n">
-        <v>537.6147</v>
+        <v>195.6125</v>
       </c>
       <c r="G163" t="n">
         <v>188.2833333333333</v>
@@ -6218,8 +6408,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>187</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6241,7 +6437,7 @@
         <v>188</v>
       </c>
       <c r="F164" t="n">
-        <v>692.9382000000001</v>
+        <v>537.6147</v>
       </c>
       <c r="G164" t="n">
         <v>188.2833333333333</v>
@@ -6253,8 +6449,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>187</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6264,22 +6466,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C165" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D165" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E165" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F165" t="n">
-        <v>786.7415</v>
+        <v>692.9382000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6288,8 +6490,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>187</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6299,19 +6507,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C166" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D166" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E166" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F166" t="n">
-        <v>169.7649</v>
+        <v>786.7415</v>
       </c>
       <c r="G166" t="n">
         <v>188.2666666666667</v>
@@ -6323,8 +6531,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>187</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6346,7 +6560,7 @@
         <v>188</v>
       </c>
       <c r="F167" t="n">
-        <v>13</v>
+        <v>169.7649</v>
       </c>
       <c r="G167" t="n">
         <v>188.2666666666667</v>
@@ -6358,8 +6572,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>187</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6381,7 +6601,7 @@
         <v>188</v>
       </c>
       <c r="F168" t="n">
-        <v>3050</v>
+        <v>13</v>
       </c>
       <c r="G168" t="n">
         <v>188.2666666666667</v>
@@ -6393,8 +6613,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>187</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6404,22 +6630,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C169" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D169" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E169" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F169" t="n">
-        <v>1468.4558</v>
+        <v>3050</v>
       </c>
       <c r="G169" t="n">
-        <v>188.25</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6428,8 +6654,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>187</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6451,10 +6683,10 @@
         <v>187</v>
       </c>
       <c r="F170" t="n">
-        <v>2934.2584</v>
+        <v>1468.4558</v>
       </c>
       <c r="G170" t="n">
-        <v>188.2333333333333</v>
+        <v>188.25</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6463,8 +6695,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>187</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6474,19 +6712,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F171" t="n">
-        <v>293.4739</v>
+        <v>2934.2584</v>
       </c>
       <c r="G171" t="n">
         <v>188.2333333333333</v>
@@ -6498,8 +6736,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>187</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6521,7 +6765,7 @@
         <v>188</v>
       </c>
       <c r="F172" t="n">
-        <v>1315.4026</v>
+        <v>293.4739</v>
       </c>
       <c r="G172" t="n">
         <v>188.2333333333333</v>
@@ -6533,8 +6777,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>187</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6556,7 +6806,7 @@
         <v>188</v>
       </c>
       <c r="F173" t="n">
-        <v>176.8253</v>
+        <v>1315.4026</v>
       </c>
       <c r="G173" t="n">
         <v>188.2333333333333</v>
@@ -6568,8 +6818,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>187</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6591,10 +6847,10 @@
         <v>188</v>
       </c>
       <c r="F174" t="n">
-        <v>600</v>
+        <v>176.8253</v>
       </c>
       <c r="G174" t="n">
-        <v>188.25</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6603,8 +6859,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>187</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6626,10 +6888,10 @@
         <v>188</v>
       </c>
       <c r="F175" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="G175" t="n">
-        <v>188.2666666666667</v>
+        <v>188.25</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6638,8 +6900,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>187</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6649,22 +6917,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C176" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D176" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E176" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F176" t="n">
-        <v>68237.6752</v>
+        <v>2700</v>
       </c>
       <c r="G176" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6673,8 +6941,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>187</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6687,19 +6961,19 @@
         <v>187</v>
       </c>
       <c r="C177" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D177" t="n">
         <v>187</v>
       </c>
       <c r="E177" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F177" t="n">
-        <v>9029.0749</v>
+        <v>68237.6752</v>
       </c>
       <c r="G177" t="n">
-        <v>188.2166666666667</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6708,8 +6982,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>187</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6719,22 +6999,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C178" t="n">
         <v>186</v>
       </c>
       <c r="D178" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E178" t="n">
         <v>186</v>
       </c>
       <c r="F178" t="n">
-        <v>1.5021</v>
+        <v>9029.0749</v>
       </c>
       <c r="G178" t="n">
-        <v>188.2</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6743,8 +7023,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>187</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6754,19 +7040,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C179" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D179" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E179" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F179" t="n">
-        <v>526.3157</v>
+        <v>1.5021</v>
       </c>
       <c r="G179" t="n">
         <v>188.2</v>
@@ -6778,8 +7064,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>187</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6789,22 +7081,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C180" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D180" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E180" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F180" t="n">
-        <v>303.3439</v>
+        <v>526.3157</v>
       </c>
       <c r="G180" t="n">
-        <v>188.1833333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6813,8 +7105,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>187</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6827,16 +7125,16 @@
         <v>186</v>
       </c>
       <c r="C181" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D181" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E181" t="n">
         <v>186</v>
       </c>
       <c r="F181" t="n">
-        <v>1669</v>
+        <v>303.3439</v>
       </c>
       <c r="G181" t="n">
         <v>188.1833333333333</v>
@@ -6848,8 +7146,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>187</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6859,7 +7163,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C182" t="n">
         <v>187</v>
@@ -6868,10 +7172,10 @@
         <v>187</v>
       </c>
       <c r="E182" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F182" t="n">
-        <v>8995.6919</v>
+        <v>1669</v>
       </c>
       <c r="G182" t="n">
         <v>188.1833333333333</v>
@@ -6883,8 +7187,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>187</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6894,36 +7204,38 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C183" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D183" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E183" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F183" t="n">
-        <v>1000</v>
+        <v>8995.6919</v>
       </c>
       <c r="G183" t="n">
-        <v>188.2166666666667</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>187</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
         <v>187</v>
       </c>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6945,26 +7257,24 @@
         <v>189</v>
       </c>
       <c r="F184" t="n">
-        <v>6510.4338</v>
+        <v>1000</v>
       </c>
       <c r="G184" t="n">
-        <v>188.25</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>189</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
         <v>187</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -6988,10 +7298,10 @@
         <v>189</v>
       </c>
       <c r="F185" t="n">
-        <v>870.7566</v>
+        <v>6510.4338</v>
       </c>
       <c r="G185" t="n">
-        <v>188.2833333333333</v>
+        <v>188.25</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7005,7 +7315,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -7017,38 +7327,36 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C186" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D186" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E186" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F186" t="n">
-        <v>39536.8292</v>
+        <v>870.7566</v>
       </c>
       <c r="G186" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>189</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
         <v>187</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -7060,22 +7368,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C187" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D187" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E187" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F187" t="n">
-        <v>6560.0916</v>
+        <v>39536.8292</v>
       </c>
       <c r="G187" t="n">
-        <v>188.25</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7101,22 +7409,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F188" t="n">
-        <v>15</v>
+        <v>6560.0916</v>
       </c>
       <c r="G188" t="n">
-        <v>188.3</v>
+        <v>188.25</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7154,10 +7462,10 @@
         <v>189</v>
       </c>
       <c r="F189" t="n">
-        <v>6378.4221</v>
+        <v>15</v>
       </c>
       <c r="G189" t="n">
-        <v>188.35</v>
+        <v>188.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7195,10 +7503,10 @@
         <v>189</v>
       </c>
       <c r="F190" t="n">
-        <v>307.719</v>
+        <v>6378.4221</v>
       </c>
       <c r="G190" t="n">
-        <v>188.4</v>
+        <v>188.35</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7224,22 +7532,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D191" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E191" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F191" t="n">
-        <v>2870.3315</v>
+        <v>307.719</v>
       </c>
       <c r="G191" t="n">
-        <v>188.4833333333333</v>
+        <v>188.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7265,19 +7573,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D192" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E192" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F192" t="n">
-        <v>300</v>
+        <v>2870.3315</v>
       </c>
       <c r="G192" t="n">
         <v>188.4833333333333</v>
@@ -7318,10 +7626,10 @@
         <v>188</v>
       </c>
       <c r="F193" t="n">
-        <v>10153.0478</v>
+        <v>300</v>
       </c>
       <c r="G193" t="n">
-        <v>188.5166666666667</v>
+        <v>188.4833333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7359,7 +7667,7 @@
         <v>188</v>
       </c>
       <c r="F194" t="n">
-        <v>232.1854</v>
+        <v>10153.0478</v>
       </c>
       <c r="G194" t="n">
         <v>188.5166666666667</v>
@@ -7400,10 +7708,10 @@
         <v>188</v>
       </c>
       <c r="F195" t="n">
-        <v>2340.2466</v>
+        <v>232.1854</v>
       </c>
       <c r="G195" t="n">
-        <v>188.5333333333333</v>
+        <v>188.5166666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7441,7 +7749,7 @@
         <v>188</v>
       </c>
       <c r="F196" t="n">
-        <v>476.2057</v>
+        <v>2340.2466</v>
       </c>
       <c r="G196" t="n">
         <v>188.5333333333333</v>
@@ -7482,10 +7790,10 @@
         <v>188</v>
       </c>
       <c r="F197" t="n">
-        <v>84.4147</v>
+        <v>476.2057</v>
       </c>
       <c r="G197" t="n">
-        <v>188.5166666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7511,22 +7819,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C198" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D198" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E198" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F198" t="n">
-        <v>137.723</v>
+        <v>84.4147</v>
       </c>
       <c r="G198" t="n">
-        <v>188.4833333333333</v>
+        <v>188.5166666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7552,22 +7860,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C199" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D199" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E199" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F199" t="n">
-        <v>9.975</v>
+        <v>137.723</v>
       </c>
       <c r="G199" t="n">
-        <v>188.4333333333333</v>
+        <v>188.4833333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7593,22 +7901,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C200" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D200" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E200" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F200" t="n">
-        <v>5667.07</v>
+        <v>9.975</v>
       </c>
       <c r="G200" t="n">
-        <v>188.4</v>
+        <v>188.4333333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7634,22 +7942,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C201" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D201" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E201" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F201" t="n">
-        <v>801</v>
+        <v>5667.07</v>
       </c>
       <c r="G201" t="n">
-        <v>188.3833333333333</v>
+        <v>188.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7687,10 +7995,10 @@
         <v>188</v>
       </c>
       <c r="F202" t="n">
-        <v>3762.2141</v>
+        <v>801</v>
       </c>
       <c r="G202" t="n">
-        <v>188.3666666666667</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7716,19 +8024,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C203" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D203" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E203" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F203" t="n">
-        <v>457.142</v>
+        <v>3762.2141</v>
       </c>
       <c r="G203" t="n">
         <v>188.3666666666667</v>
@@ -7757,22 +8065,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C204" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D204" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E204" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F204" t="n">
-        <v>10</v>
+        <v>457.142</v>
       </c>
       <c r="G204" t="n">
-        <v>188.3833333333333</v>
+        <v>188.3666666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7810,10 +8118,10 @@
         <v>191</v>
       </c>
       <c r="F205" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G205" t="n">
-        <v>188.4</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7842,19 +8150,19 @@
         <v>191</v>
       </c>
       <c r="C206" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D206" t="n">
         <v>191</v>
       </c>
       <c r="E206" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F206" t="n">
-        <v>88</v>
+        <v>500</v>
       </c>
       <c r="G206" t="n">
-        <v>188.3666666666667</v>
+        <v>188.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7880,19 +8188,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C207" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D207" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E207" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F207" t="n">
-        <v>31.1535</v>
+        <v>88</v>
       </c>
       <c r="G207" t="n">
         <v>188.3666666666667</v>
@@ -7901,54 +8209,60 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
         <v>187</v>
       </c>
       <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>190</v>
+      </c>
+      <c r="C208" t="n">
+        <v>190</v>
+      </c>
+      <c r="D208" t="n">
+        <v>190</v>
+      </c>
+      <c r="E208" t="n">
+        <v>190</v>
+      </c>
+      <c r="F208" t="n">
+        <v>31.1535</v>
+      </c>
+      <c r="G208" t="n">
+        <v>188.3666666666667</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>187</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="M208" t="n">
         <v>1.011042780748663</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>190</v>
-      </c>
-      <c r="C208" t="n">
-        <v>190</v>
-      </c>
-      <c r="D208" t="n">
-        <v>190</v>
-      </c>
-      <c r="E208" t="n">
-        <v>190</v>
-      </c>
-      <c r="F208" t="n">
-        <v>22</v>
-      </c>
-      <c r="G208" t="n">
-        <v>188.3666666666667</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -7956,22 +8270,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C209" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D209" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E209" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F209" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G209" t="n">
-        <v>188.3333333333333</v>
+        <v>188.3666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8003,10 +8317,10 @@
         <v>189</v>
       </c>
       <c r="F210" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G210" t="n">
-        <v>188.3</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8038,10 +8352,10 @@
         <v>189</v>
       </c>
       <c r="F211" t="n">
-        <v>6000</v>
+        <v>66</v>
       </c>
       <c r="G211" t="n">
-        <v>188.2666666666667</v>
+        <v>188.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8073,10 +8387,10 @@
         <v>189</v>
       </c>
       <c r="F212" t="n">
-        <v>5031.1535</v>
+        <v>6000</v>
       </c>
       <c r="G212" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8096,19 +8410,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C213" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D213" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E213" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F213" t="n">
-        <v>1</v>
+        <v>5031.1535</v>
       </c>
       <c r="G213" t="n">
         <v>188.2333333333333</v>
@@ -8131,19 +8445,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F214" t="n">
-        <v>10850.562</v>
+        <v>1</v>
       </c>
       <c r="G214" t="n">
         <v>188.2333333333333</v>
@@ -8178,10 +8492,10 @@
         <v>189</v>
       </c>
       <c r="F215" t="n">
-        <v>1469.9651</v>
+        <v>10850.562</v>
       </c>
       <c r="G215" t="n">
-        <v>188.2</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8213,7 +8527,7 @@
         <v>189</v>
       </c>
       <c r="F216" t="n">
-        <v>6836.2676</v>
+        <v>1469.9651</v>
       </c>
       <c r="G216" t="n">
         <v>188.2</v>
@@ -8248,10 +8562,10 @@
         <v>189</v>
       </c>
       <c r="F217" t="n">
-        <v>6616.7751</v>
+        <v>6836.2676</v>
       </c>
       <c r="G217" t="n">
-        <v>188.1833333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8283,7 +8597,7 @@
         <v>189</v>
       </c>
       <c r="F218" t="n">
-        <v>593.159</v>
+        <v>6616.7751</v>
       </c>
       <c r="G218" t="n">
         <v>188.1833333333333</v>
@@ -8318,7 +8632,7 @@
         <v>189</v>
       </c>
       <c r="F219" t="n">
-        <v>456.611</v>
+        <v>593.159</v>
       </c>
       <c r="G219" t="n">
         <v>188.1833333333333</v>
@@ -8353,7 +8667,7 @@
         <v>189</v>
       </c>
       <c r="F220" t="n">
-        <v>2</v>
+        <v>456.611</v>
       </c>
       <c r="G220" t="n">
         <v>188.1833333333333</v>
@@ -8388,10 +8702,10 @@
         <v>189</v>
       </c>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G221" t="n">
-        <v>188.2</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8423,10 +8737,10 @@
         <v>189</v>
       </c>
       <c r="F222" t="n">
-        <v>161.3619</v>
+        <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>188.2166666666667</v>
+        <v>188.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8458,10 +8772,10 @@
         <v>189</v>
       </c>
       <c r="F223" t="n">
-        <v>2754.8153</v>
+        <v>161.3619</v>
       </c>
       <c r="G223" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8481,19 +8795,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C224" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D224" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E224" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F224" t="n">
-        <v>1542.4859</v>
+        <v>2754.8153</v>
       </c>
       <c r="G224" t="n">
         <v>188.2333333333333</v>
@@ -8516,22 +8830,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C225" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D225" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E225" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F225" t="n">
-        <v>5195</v>
+        <v>1542.4859</v>
       </c>
       <c r="G225" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8560,13 +8874,13 @@
         <v>189</v>
       </c>
       <c r="E226" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F226" t="n">
-        <v>5687.2448</v>
+        <v>5195</v>
       </c>
       <c r="G226" t="n">
-        <v>188.2833333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8595,13 +8909,13 @@
         <v>189</v>
       </c>
       <c r="E227" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F227" t="n">
-        <v>4658.3194</v>
+        <v>5687.2448</v>
       </c>
       <c r="G227" t="n">
-        <v>188.3</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8621,22 +8935,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C228" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D228" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E228" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F228" t="n">
-        <v>220.369</v>
+        <v>4658.3194</v>
       </c>
       <c r="G228" t="n">
-        <v>188.3333333333333</v>
+        <v>188.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8659,19 +8973,19 @@
         <v>190</v>
       </c>
       <c r="C229" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D229" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E229" t="n">
         <v>190</v>
       </c>
       <c r="F229" t="n">
-        <v>14897.0989</v>
+        <v>220.369</v>
       </c>
       <c r="G229" t="n">
-        <v>188.4166666666667</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8694,19 +9008,19 @@
         <v>190</v>
       </c>
       <c r="C230" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D230" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E230" t="n">
         <v>190</v>
       </c>
       <c r="F230" t="n">
-        <v>265.5536</v>
+        <v>14897.0989</v>
       </c>
       <c r="G230" t="n">
-        <v>188.4666666666667</v>
+        <v>188.4166666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8738,10 +9052,10 @@
         <v>190</v>
       </c>
       <c r="F231" t="n">
-        <v>3396.5063</v>
+        <v>265.5536</v>
       </c>
       <c r="G231" t="n">
-        <v>188.5</v>
+        <v>188.4666666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8773,10 +9087,10 @@
         <v>190</v>
       </c>
       <c r="F232" t="n">
-        <v>523.8238</v>
+        <v>3396.5063</v>
       </c>
       <c r="G232" t="n">
-        <v>188.5333333333333</v>
+        <v>188.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8796,22 +9110,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C233" t="n">
         <v>190</v>
       </c>
       <c r="D233" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E233" t="n">
         <v>190</v>
       </c>
       <c r="F233" t="n">
-        <v>5431.5037</v>
+        <v>523.8238</v>
       </c>
       <c r="G233" t="n">
-        <v>188.5666666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8834,19 +9148,19 @@
         <v>191</v>
       </c>
       <c r="C234" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D234" t="n">
         <v>191</v>
       </c>
       <c r="E234" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F234" t="n">
-        <v>5235.0141</v>
+        <v>5431.5037</v>
       </c>
       <c r="G234" t="n">
-        <v>188.6166666666667</v>
+        <v>188.5666666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8866,22 +9180,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C235" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D235" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E235" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F235" t="n">
-        <v>207.4173</v>
+        <v>5235.0141</v>
       </c>
       <c r="G235" t="n">
-        <v>188.65</v>
+        <v>188.6166666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8901,22 +9215,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C236" t="n">
         <v>190</v>
       </c>
       <c r="D236" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E236" t="n">
         <v>190</v>
       </c>
       <c r="F236" t="n">
-        <v>2589.5176</v>
+        <v>207.4173</v>
       </c>
       <c r="G236" t="n">
-        <v>188.7333333333333</v>
+        <v>188.65</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8936,22 +9250,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C237" t="n">
         <v>190</v>
       </c>
       <c r="D237" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E237" t="n">
         <v>190</v>
       </c>
       <c r="F237" t="n">
-        <v>10008</v>
+        <v>2589.5176</v>
       </c>
       <c r="G237" t="n">
-        <v>188.8</v>
+        <v>188.7333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8983,10 +9297,10 @@
         <v>190</v>
       </c>
       <c r="F238" t="n">
-        <v>246.4479</v>
+        <v>10008</v>
       </c>
       <c r="G238" t="n">
-        <v>188.8666666666667</v>
+        <v>188.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9018,10 +9332,10 @@
         <v>190</v>
       </c>
       <c r="F239" t="n">
-        <v>581</v>
+        <v>246.4479</v>
       </c>
       <c r="G239" t="n">
-        <v>188.9166666666667</v>
+        <v>188.8666666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9041,22 +9355,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C240" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D240" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E240" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F240" t="n">
-        <v>212.7902</v>
+        <v>581</v>
       </c>
       <c r="G240" t="n">
-        <v>189</v>
+        <v>188.9166666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9088,10 +9402,10 @@
         <v>191</v>
       </c>
       <c r="F241" t="n">
-        <v>194</v>
+        <v>212.7902</v>
       </c>
       <c r="G241" t="n">
-        <v>189.0666666666667</v>
+        <v>189</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9111,22 +9425,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C242" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D242" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E242" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F242" t="n">
-        <v>189.4135</v>
+        <v>194</v>
       </c>
       <c r="G242" t="n">
-        <v>189.1166666666667</v>
+        <v>189.0666666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9158,10 +9472,10 @@
         <v>190</v>
       </c>
       <c r="F243" t="n">
-        <v>61.6425</v>
+        <v>189.4135</v>
       </c>
       <c r="G243" t="n">
-        <v>189.1333333333333</v>
+        <v>189.1166666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9184,19 +9498,19 @@
         <v>190</v>
       </c>
       <c r="C244" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D244" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E244" t="n">
         <v>190</v>
       </c>
       <c r="F244" t="n">
-        <v>4712.651</v>
+        <v>61.6425</v>
       </c>
       <c r="G244" t="n">
-        <v>189.1666666666667</v>
+        <v>189.1333333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9219,19 +9533,19 @@
         <v>190</v>
       </c>
       <c r="C245" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D245" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E245" t="n">
         <v>190</v>
       </c>
       <c r="F245" t="n">
-        <v>119.4135</v>
+        <v>4712.651</v>
       </c>
       <c r="G245" t="n">
-        <v>189.1833333333333</v>
+        <v>189.1666666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9263,10 +9577,10 @@
         <v>190</v>
       </c>
       <c r="F246" t="n">
-        <v>96.46729999999999</v>
+        <v>119.4135</v>
       </c>
       <c r="G246" t="n">
-        <v>189.25</v>
+        <v>189.1833333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9286,22 +9600,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C247" t="n">
         <v>190</v>
       </c>
       <c r="D247" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E247" t="n">
         <v>190</v>
       </c>
       <c r="F247" t="n">
-        <v>7174.2178</v>
+        <v>96.46729999999999</v>
       </c>
       <c r="G247" t="n">
-        <v>189.3</v>
+        <v>189.25</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9324,19 +9638,19 @@
         <v>191</v>
       </c>
       <c r="C248" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D248" t="n">
         <v>191</v>
       </c>
       <c r="E248" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F248" t="n">
-        <v>2484.3389</v>
+        <v>7174.2178</v>
       </c>
       <c r="G248" t="n">
-        <v>189.3333333333333</v>
+        <v>189.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9356,22 +9670,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C249" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D249" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E249" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F249" t="n">
-        <v>14.2857</v>
+        <v>2484.3389</v>
       </c>
       <c r="G249" t="n">
-        <v>189.35</v>
+        <v>189.3333333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9391,19 +9705,19 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C250" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D250" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E250" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F250" t="n">
-        <v>649.8581</v>
+        <v>14.2857</v>
       </c>
       <c r="G250" t="n">
         <v>189.35</v>
@@ -9426,22 +9740,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C251" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D251" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E251" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F251" t="n">
-        <v>95.1587</v>
+        <v>649.8581</v>
       </c>
       <c r="G251" t="n">
-        <v>189.3833333333333</v>
+        <v>189.35</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9473,10 +9787,10 @@
         <v>192</v>
       </c>
       <c r="F252" t="n">
-        <v>94.8473</v>
+        <v>95.1587</v>
       </c>
       <c r="G252" t="n">
-        <v>189.45</v>
+        <v>189.3833333333333</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9496,22 +9810,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C253" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D253" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E253" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F253" t="n">
-        <v>225.1472</v>
+        <v>94.8473</v>
       </c>
       <c r="G253" t="n">
-        <v>189.5</v>
+        <v>189.45</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9534,25 +9848,25 @@
         <v>191</v>
       </c>
       <c r="C254" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D254" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E254" t="n">
         <v>191</v>
       </c>
       <c r="F254" t="n">
-        <v>2200</v>
+        <v>225.1472</v>
       </c>
       <c r="G254" t="n">
-        <v>189.5666666666667</v>
+        <v>189.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
@@ -9566,7 +9880,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C255" t="n">
         <v>192</v>
@@ -9575,13 +9889,13 @@
         <v>192</v>
       </c>
       <c r="E255" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F255" t="n">
-        <v>112.7527</v>
+        <v>2200</v>
       </c>
       <c r="G255" t="n">
-        <v>189.6333333333333</v>
+        <v>189.5666666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9613,10 +9927,10 @@
         <v>192</v>
       </c>
       <c r="F256" t="n">
-        <v>134.7054</v>
+        <v>112.7527</v>
       </c>
       <c r="G256" t="n">
-        <v>189.7</v>
+        <v>189.6333333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9648,10 +9962,10 @@
         <v>192</v>
       </c>
       <c r="F257" t="n">
-        <v>21.8069</v>
+        <v>134.7054</v>
       </c>
       <c r="G257" t="n">
-        <v>189.7666666666667</v>
+        <v>189.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9683,10 +9997,10 @@
         <v>192</v>
       </c>
       <c r="F258" t="n">
-        <v>4687.8569</v>
+        <v>21.8069</v>
       </c>
       <c r="G258" t="n">
-        <v>189.85</v>
+        <v>189.7666666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9706,22 +10020,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C259" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D259" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E259" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F259" t="n">
-        <v>1876.208</v>
+        <v>4687.8569</v>
       </c>
       <c r="G259" t="n">
-        <v>189.9333333333333</v>
+        <v>189.85</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9753,10 +10067,10 @@
         <v>191</v>
       </c>
       <c r="F260" t="n">
-        <v>2073</v>
+        <v>1876.208</v>
       </c>
       <c r="G260" t="n">
-        <v>190</v>
+        <v>189.9333333333333</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9788,10 +10102,10 @@
         <v>191</v>
       </c>
       <c r="F261" t="n">
-        <v>884.4933</v>
+        <v>2073</v>
       </c>
       <c r="G261" t="n">
-        <v>190.05</v>
+        <v>190</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9823,10 +10137,10 @@
         <v>191</v>
       </c>
       <c r="F262" t="n">
-        <v>334.2385</v>
+        <v>884.4933</v>
       </c>
       <c r="G262" t="n">
-        <v>190.1</v>
+        <v>190.05</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9846,22 +10160,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C263" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D263" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E263" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F263" t="n">
-        <v>1000</v>
+        <v>334.2385</v>
       </c>
       <c r="G263" t="n">
-        <v>190.1166666666667</v>
+        <v>190.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9881,19 +10195,19 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C264" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D264" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E264" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F264" t="n">
-        <v>266.1577</v>
+        <v>1000</v>
       </c>
       <c r="G264" t="n">
         <v>190.1166666666667</v>
@@ -9916,22 +10230,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C265" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D265" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E265" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F265" t="n">
-        <v>1168.2004</v>
+        <v>266.1577</v>
       </c>
       <c r="G265" t="n">
-        <v>190.1333333333333</v>
+        <v>190.1166666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9951,22 +10265,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C266" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D266" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E266" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>1168.2004</v>
       </c>
       <c r="G266" t="n">
-        <v>190.2</v>
+        <v>190.1333333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9998,10 +10312,10 @@
         <v>193</v>
       </c>
       <c r="F267" t="n">
-        <v>18.2235</v>
+        <v>1</v>
       </c>
       <c r="G267" t="n">
-        <v>190.25</v>
+        <v>190.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10021,22 +10335,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C268" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D268" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E268" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F268" t="n">
-        <v>1</v>
+        <v>18.2235</v>
       </c>
       <c r="G268" t="n">
-        <v>190.3166666666667</v>
+        <v>190.25</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10059,19 +10373,19 @@
         <v>194</v>
       </c>
       <c r="C269" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D269" t="n">
         <v>194</v>
       </c>
       <c r="E269" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F269" t="n">
-        <v>1386.799</v>
+        <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>190.3666666666667</v>
+        <v>190.3166666666667</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10094,25 +10408,25 @@
         <v>194</v>
       </c>
       <c r="C270" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D270" t="n">
         <v>194</v>
       </c>
       <c r="E270" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F270" t="n">
-        <v>1</v>
+        <v>1386.799</v>
       </c>
       <c r="G270" t="n">
-        <v>190.45</v>
+        <v>190.3666666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
@@ -10126,22 +10440,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C271" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D271" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E271" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F271" t="n">
-        <v>299.9999</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
-        <v>190.5166666666667</v>
+        <v>190.45</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10173,10 +10487,10 @@
         <v>193</v>
       </c>
       <c r="F272" t="n">
-        <v>3189.8993</v>
+        <v>299.9999</v>
       </c>
       <c r="G272" t="n">
-        <v>190.5833333333333</v>
+        <v>190.5166666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10196,22 +10510,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C273" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D273" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E273" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F273" t="n">
-        <v>12.7526</v>
+        <v>3189.8993</v>
       </c>
       <c r="G273" t="n">
-        <v>190.6166666666667</v>
+        <v>190.5833333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10237,16 +10551,16 @@
         <v>192</v>
       </c>
       <c r="D274" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E274" t="n">
         <v>192</v>
       </c>
       <c r="F274" t="n">
-        <v>8015.3102</v>
+        <v>12.7526</v>
       </c>
       <c r="G274" t="n">
-        <v>190.6666666666667</v>
+        <v>190.6166666666667</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10272,16 +10586,16 @@
         <v>192</v>
       </c>
       <c r="D275" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E275" t="n">
         <v>192</v>
       </c>
       <c r="F275" t="n">
-        <v>4155.9999</v>
+        <v>8015.3102</v>
       </c>
       <c r="G275" t="n">
-        <v>190.7166666666667</v>
+        <v>190.6666666666667</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10304,19 +10618,19 @@
         <v>192</v>
       </c>
       <c r="C276" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D276" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E276" t="n">
         <v>192</v>
       </c>
       <c r="F276" t="n">
-        <v>1294.4803</v>
+        <v>4155.9999</v>
       </c>
       <c r="G276" t="n">
-        <v>190.7833333333333</v>
+        <v>190.7166666666667</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10336,22 +10650,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C277" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D277" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E277" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F277" t="n">
-        <v>1</v>
+        <v>1294.4803</v>
       </c>
       <c r="G277" t="n">
-        <v>190.8166666666667</v>
+        <v>190.7833333333333</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10371,22 +10685,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C278" t="n">
         <v>191</v>
       </c>
       <c r="D278" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E278" t="n">
         <v>191</v>
       </c>
       <c r="F278" t="n">
-        <v>816.6412</v>
+        <v>1</v>
       </c>
       <c r="G278" t="n">
-        <v>190.85</v>
+        <v>190.8166666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10409,19 +10723,19 @@
         <v>193</v>
       </c>
       <c r="C279" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D279" t="n">
         <v>193</v>
       </c>
       <c r="E279" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F279" t="n">
-        <v>1</v>
+        <v>816.6412</v>
       </c>
       <c r="G279" t="n">
-        <v>190.9166666666667</v>
+        <v>190.85</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10453,10 +10767,10 @@
         <v>193</v>
       </c>
       <c r="F280" t="n">
-        <v>2342.3575</v>
+        <v>1</v>
       </c>
       <c r="G280" t="n">
-        <v>190.9833333333333</v>
+        <v>190.9166666666667</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10488,10 +10802,10 @@
         <v>193</v>
       </c>
       <c r="F281" t="n">
-        <v>113.2336</v>
+        <v>2342.3575</v>
       </c>
       <c r="G281" t="n">
-        <v>191.05</v>
+        <v>190.9833333333333</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10523,10 +10837,10 @@
         <v>193</v>
       </c>
       <c r="F282" t="n">
-        <v>1.3886</v>
+        <v>113.2336</v>
       </c>
       <c r="G282" t="n">
-        <v>191.1166666666667</v>
+        <v>191.05</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10558,10 +10872,10 @@
         <v>193</v>
       </c>
       <c r="F283" t="n">
-        <v>772.496</v>
+        <v>1.3886</v>
       </c>
       <c r="G283" t="n">
-        <v>191.1833333333333</v>
+        <v>191.1166666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10581,22 +10895,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C284" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D284" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E284" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F284" t="n">
-        <v>835.871</v>
+        <v>772.496</v>
       </c>
       <c r="G284" t="n">
-        <v>191.2833333333333</v>
+        <v>191.1833333333333</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10628,10 +10942,10 @@
         <v>194</v>
       </c>
       <c r="F285" t="n">
-        <v>846</v>
+        <v>835.871</v>
       </c>
       <c r="G285" t="n">
-        <v>191.3666666666667</v>
+        <v>191.2833333333333</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10654,19 +10968,19 @@
         <v>194</v>
       </c>
       <c r="C286" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D286" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E286" t="n">
         <v>194</v>
       </c>
       <c r="F286" t="n">
-        <v>3600.6128</v>
+        <v>846</v>
       </c>
       <c r="G286" t="n">
-        <v>191.4666666666667</v>
+        <v>191.3666666666667</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10689,19 +11003,19 @@
         <v>194</v>
       </c>
       <c r="C287" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D287" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E287" t="n">
         <v>194</v>
       </c>
       <c r="F287" t="n">
-        <v>829</v>
+        <v>3600.6128</v>
       </c>
       <c r="G287" t="n">
-        <v>191.55</v>
+        <v>191.4666666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10733,10 +11047,10 @@
         <v>194</v>
       </c>
       <c r="F288" t="n">
-        <v>1653.7754</v>
+        <v>829</v>
       </c>
       <c r="G288" t="n">
-        <v>191.6166666666667</v>
+        <v>191.55</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10756,22 +11070,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C289" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D289" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E289" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F289" t="n">
-        <v>2486.2102</v>
+        <v>1653.7754</v>
       </c>
       <c r="G289" t="n">
-        <v>191.6666666666667</v>
+        <v>191.6166666666667</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10803,10 +11117,10 @@
         <v>195</v>
       </c>
       <c r="F290" t="n">
-        <v>3369.1128</v>
+        <v>2486.2102</v>
       </c>
       <c r="G290" t="n">
-        <v>191.75</v>
+        <v>191.6666666666667</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10826,22 +11140,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C291" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D291" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E291" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F291" t="n">
-        <v>11890.8954</v>
+        <v>3369.1128</v>
       </c>
       <c r="G291" t="n">
-        <v>191.8166666666667</v>
+        <v>191.75</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10873,10 +11187,10 @@
         <v>194</v>
       </c>
       <c r="F292" t="n">
-        <v>8729.403200000001</v>
+        <v>11890.8954</v>
       </c>
       <c r="G292" t="n">
-        <v>191.8833333333333</v>
+        <v>191.8166666666667</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10908,10 +11222,10 @@
         <v>194</v>
       </c>
       <c r="F293" t="n">
-        <v>10309.2783</v>
+        <v>8729.403200000001</v>
       </c>
       <c r="G293" t="n">
-        <v>191.95</v>
+        <v>191.8833333333333</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10926,6 +11240,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>194</v>
+      </c>
+      <c r="C294" t="n">
+        <v>194</v>
+      </c>
+      <c r="D294" t="n">
+        <v>194</v>
+      </c>
+      <c r="E294" t="n">
+        <v>194</v>
+      </c>
+      <c r="F294" t="n">
+        <v>10309.2783</v>
+      </c>
+      <c r="G294" t="n">
+        <v>191.95</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-25 BackTest KNC.xlsx
+++ b/BackTest/2019-10-25 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,17 +616,11 @@
         <v>-2342428.0672</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -659,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -696,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -733,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -770,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -807,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -844,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -881,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -918,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -955,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -992,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1029,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1066,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1103,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1140,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1214,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1251,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1284,17 +1210,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1323,17 +1243,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1366,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1399,17 +1309,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1438,17 +1342,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1481,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1514,17 +1408,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1557,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1594,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1631,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1668,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1742,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1779,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1816,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1853,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1890,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1927,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1964,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2001,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2038,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2075,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2112,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2149,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2186,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2223,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2260,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2297,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2334,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2371,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2408,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2445,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2482,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2519,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2552,17 +2332,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2591,17 +2365,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2630,17 +2398,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2669,17 +2431,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2708,17 +2464,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2747,17 +2497,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2786,17 +2530,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2866,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2903,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2936,15 +2662,15 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>187</v>
+      </c>
+      <c r="J69" t="n">
+        <v>187</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2973,15 +2699,17 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>187</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>187</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -3012,15 +2740,17 @@
         <v>174292.8917000002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>187</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>187</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -3051,12 +2781,14 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>188</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>187</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,12 +2822,14 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>187</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>187</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,12 +2863,12 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>187</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>187</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,12 +2902,12 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>187</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>187</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,12 +2941,12 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>187</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>187</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,12 +2980,14 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>187</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>187</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,12 +3021,12 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>188</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>187</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,12 +3060,12 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>188</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>187</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3363,12 +3099,12 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>188</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>187</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,12 +3138,12 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>188</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>187</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3444,7 +3180,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>187</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3478,16 +3216,20 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>187</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
       <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3516,8 +3258,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>187</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3549,8 +3297,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>187</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3582,8 +3336,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>187</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3615,8 +3375,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>187</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3648,8 +3414,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>187</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3681,8 +3453,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>187</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3714,8 +3492,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>187</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3747,8 +3531,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>187</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3780,8 +3570,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>187</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3813,8 +3609,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>187</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3846,8 +3648,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>187</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3879,8 +3687,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>187</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3912,8 +3726,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>187</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3945,8 +3765,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>187</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3978,8 +3804,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>187</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4011,8 +3843,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>187</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4041,11 +3879,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>187</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4077,8 +3921,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>187</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4110,8 +3960,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>187</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4143,8 +3999,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>187</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4176,8 +4038,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>187</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4209,8 +4077,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>187</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4242,8 +4116,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>187</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4275,8 +4155,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>187</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4308,8 +4194,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>187</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4341,8 +4233,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>187</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4374,8 +4272,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>187</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4404,13 +4308,19 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>187</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>1.005695187165776</v>
       </c>
       <c r="M111" t="inlineStr"/>
     </row>
@@ -4437,7 +4347,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4536,7 +4446,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4602,7 +4512,7 @@
         <v>-1297769.4589</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4668,7 +4578,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4800,7 +4710,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4866,7 +4776,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4932,7 +4842,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4998,7 +4908,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5196,7 +5106,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5229,7 +5139,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5427,7 +5337,7 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6186,14 +6096,10 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>188</v>
-      </c>
-      <c r="J165" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
@@ -6223,19 +6129,11 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>188</v>
-      </c>
-      <c r="J166" t="n">
-        <v>188</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6264,19 +6162,11 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>188</v>
-      </c>
-      <c r="J167" t="n">
-        <v>188</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +6294,10 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>188</v>
-      </c>
-      <c r="J171" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6441,7 +6327,7 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>188</v>
@@ -6449,11 +6335,7 @@
       <c r="J172" t="n">
         <v>188</v>
       </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6482,11 +6364,9 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>188</v>
       </c>
@@ -6523,7 +6403,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>187</v>
@@ -6564,7 +6444,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>187</v>
@@ -6605,7 +6485,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>187</v>
@@ -6646,7 +6526,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>187</v>
@@ -6687,11 +6567,9 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>188</v>
       </c>
@@ -6728,11 +6606,9 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>188</v>
       </c>
@@ -6769,11 +6645,9 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>188</v>
       </c>
@@ -6810,11 +6684,9 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>188</v>
       </c>
@@ -6851,11 +6723,9 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>188</v>
       </c>
@@ -6892,7 +6762,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>187</v>
@@ -6933,7 +6803,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>187</v>
@@ -6974,11 +6844,9 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>188</v>
       </c>
@@ -7015,7 +6883,7 @@
         <v>-1400214.337</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>187</v>
@@ -7056,9 +6924,11 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>188</v>
+      </c>
       <c r="J187" t="n">
         <v>188</v>
       </c>
@@ -7095,7 +6965,7 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>186</v>
@@ -7136,7 +7006,7 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>186</v>
@@ -7177,7 +7047,7 @@
         <v>-1429969.2363</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>186</v>
@@ -7218,11 +7088,9 @@
         <v>-1429908.6832</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>188</v>
       </c>
@@ -7259,11 +7127,9 @@
         <v>-1458809.4861</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>188</v>
       </c>
@@ -7300,11 +7166,9 @@
         <v>-1455409.4861</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>188</v>
       </c>
@@ -7341,11 +7205,9 @@
         <v>-1455912.8832</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>188</v>
       </c>
@@ -7382,11 +7244,9 @@
         <v>-1452596.8832</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>188</v>
       </c>
@@ -7423,7 +7283,7 @@
         <v>-1444073.6633</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>188</v>
@@ -7659,7 +7519,7 @@
         <v>-1444073.6633</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
@@ -7667,11 +7527,11 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1.00031914893617</v>
+        <v>1</v>
       </c>
       <c r="M202" t="inlineStr"/>
     </row>
@@ -7698,11 +7558,17 @@
         <v>-1443895.8707</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>188</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7734,8 +7600,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>188</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7767,8 +7639,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>188</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7800,8 +7678,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>188</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7833,8 +7717,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>188</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7866,8 +7756,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>188</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7896,11 +7792,17 @@
         <v>-1441189.1946</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>188</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7929,11 +7831,17 @@
         <v>-1441189.1946</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>188</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7962,11 +7870,17 @@
         <v>-1441189.1946</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>188</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7995,11 +7909,17 @@
         <v>-1441420.2133</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>188</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8028,11 +7948,17 @@
         <v>-1448111.4007</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>188</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8061,11 +7987,17 @@
         <v>-1439228.4168</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>188</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8094,11 +8026,17 @@
         <v>-1441365.2068</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>188</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8127,11 +8065,17 @@
         <v>-1441364.2068</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>188</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8160,11 +8104,17 @@
         <v>-1442265.3576</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>188</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8193,11 +8143,17 @@
         <v>-1442265.3576</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>188</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8226,11 +8182,17 @@
         <v>-1442265.3576</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>188</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8262,8 +8224,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>188</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8292,15 +8260,17 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
         <v>188</v>
       </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8329,7 +8299,7 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>188</v>
@@ -8339,7 +8309,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L222" t="n">
@@ -8370,17 +8340,15 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
         <v>188</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L223" t="n">
@@ -8411,15 +8379,17 @@
         <v>-1449248.338599999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
         <v>188</v>
       </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8448,17 +8418,15 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
         <v>188</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -8489,17 +8457,15 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>188</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -8530,15 +8496,17 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
         <v>188</v>
       </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8567,17 +8535,15 @@
         <v>-1450547.029499999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
         <v>188</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -8608,17 +8574,15 @@
         <v>-1450547.029499999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
         <v>188</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -8649,15 +8613,17 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>187</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8686,17 +8652,15 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8727,17 +8691,15 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8768,15 +8730,17 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>188</v>
       </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8805,17 +8769,15 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
         <v>188</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -8846,17 +8808,15 @@
         <v>-1518491.230799999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
         <v>188</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L235" t="n">
@@ -8887,11 +8847,9 @@
         <v>-1509462.155899999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
         <v>188</v>
       </c>
@@ -8928,11 +8886,9 @@
         <v>-1509462.155899999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
         <v>188</v>
       </c>
@@ -8969,7 +8925,7 @@
         <v>-1508935.8402</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>186</v>
@@ -9010,11 +8966,9 @@
         <v>-1509239.184099999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
         <v>188</v>
       </c>
@@ -9051,7 +9005,7 @@
         <v>-1507570.184099999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>186</v>
@@ -9092,11 +9046,9 @@
         <v>-1507570.184099999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
         <v>188</v>
       </c>
@@ -9133,11 +9085,9 @@
         <v>-1506570.184099999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
         <v>188</v>
       </c>
@@ -9993,7 +9943,7 @@
         <v>-1530174.0762</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
@@ -10032,7 +9982,7 @@
         <v>-1530262.0762</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
@@ -10071,7 +10021,7 @@
         <v>-1530230.9227</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
@@ -10110,7 +10060,7 @@
         <v>-1530230.9227</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
@@ -10149,7 +10099,7 @@
         <v>-1530274.9227</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
@@ -10188,7 +10138,7 @@
         <v>-1530274.9227</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
@@ -10227,7 +10177,7 @@
         <v>-1530274.9227</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
@@ -10266,7 +10216,7 @@
         <v>-1530274.9227</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
@@ -10305,7 +10255,7 @@
         <v>-1530273.9227</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
@@ -10344,7 +10294,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
@@ -10461,7 +10411,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
@@ -10500,7 +10450,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
@@ -10539,7 +10489,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
@@ -10656,7 +10606,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
@@ -10773,7 +10723,7 @@
         <v>-1537471.970599999</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
@@ -10929,7 +10879,7 @@
         <v>-1522354.502699999</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
@@ -10968,7 +10918,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
@@ -11007,7 +10957,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
@@ -11085,7 +11035,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
@@ -11124,7 +11074,7 @@
         <v>-1517385.042199999</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
@@ -11163,7 +11113,7 @@
         <v>-1517592.459499999</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
@@ -11241,7 +11191,7 @@
         <v>-1517592.459499999</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
@@ -11280,7 +11230,7 @@
         <v>-1517592.459499999</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
@@ -11319,7 +11269,7 @@
         <v>-1517592.459499999</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
@@ -11358,7 +11308,7 @@
         <v>-1517379.669299999</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
@@ -11397,7 +11347,7 @@
         <v>-1517379.669299999</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
@@ -11436,7 +11386,7 @@
         <v>-1517569.0828</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
@@ -11592,7 +11542,7 @@
         <v>-1512975.845299999</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
@@ -11709,7 +11659,7 @@
         <v>-1510505.792099999</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
@@ -11748,7 +11698,7 @@
         <v>-1511155.650199999</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
@@ -11865,7 +11815,7 @@
         <v>-1511285.638699999</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
@@ -12567,7 +12517,7 @@
         <v>-1512211.287499999</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
@@ -12575,11 +12525,11 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L330" t="n">
-        <v>1.021595744680851</v>
+        <v>1</v>
       </c>
       <c r="M330" t="inlineStr"/>
     </row>
@@ -12606,11 +12556,17 @@
         <v>-1512211.287499999</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>188</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12639,11 +12595,17 @@
         <v>-1512224.040099999</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>188</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12672,11 +12634,17 @@
         <v>-1512224.040099999</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>188</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12708,8 +12676,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>188</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12741,8 +12715,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>188</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12774,8 +12754,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>188</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12807,8 +12793,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>188</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12837,13 +12829,19 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>188</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L338" t="n">
-        <v>1</v>
+        <v>1.021595744680851</v>
       </c>
       <c r="M338" t="inlineStr"/>
     </row>
@@ -12870,7 +12868,7 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12903,7 +12901,7 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13035,7 +13033,7 @@
         <v>-1510093.688799999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13068,7 +13066,7 @@
         <v>-1506493.075999999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13101,7 +13099,7 @@
         <v>-1507322.075999999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13134,7 +13132,7 @@
         <v>-1507322.075999999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13167,7 +13165,7 @@
         <v>-1504835.865799999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13200,7 +13198,7 @@
         <v>-1504835.865799999</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13233,7 +13231,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13266,7 +13264,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13299,7 +13297,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13332,7 +13330,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13365,7 +13363,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13398,7 +13396,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13431,7 +13429,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13464,7 +13462,7 @@
         <v>-1522723.983899999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13497,7 +13495,7 @@
         <v>-1524973.983899999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13530,7 +13528,7 @@
         <v>-1524972.983899999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13563,7 +13561,7 @@
         <v>-1560688.209399999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13596,7 +13594,7 @@
         <v>-1560488.209399999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13629,7 +13627,7 @@
         <v>-1560488.209399999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13640,6 +13638,6 @@
       <c r="M362" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest KNC.xlsx
+++ b/BackTest/2019-10-25 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2662,14 +2662,10 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>187</v>
-      </c>
-      <c r="J69" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2699,19 +2695,11 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>187</v>
-      </c>
-      <c r="J70" t="n">
-        <v>187</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2740,19 +2728,11 @@
         <v>174292.8917000002</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>187</v>
-      </c>
-      <c r="J71" t="n">
-        <v>187</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,19 +2761,11 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>188</v>
-      </c>
-      <c r="J72" t="n">
-        <v>187</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2822,19 +2794,11 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>187</v>
-      </c>
-      <c r="J73" t="n">
-        <v>187</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2866,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>187</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2905,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>187</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2944,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>187</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2980,19 +2926,11 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>187</v>
-      </c>
-      <c r="J77" t="n">
-        <v>187</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3024,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>187</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3063,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>187</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3102,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>187</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3141,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>187</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3180,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>187</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3219,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>187</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3258,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>187</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3297,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>187</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3336,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>187</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3375,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>187</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3414,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>187</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3453,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>187</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3492,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>187</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3531,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>187</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3570,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>187</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3609,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>187</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3648,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>187</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3687,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>187</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3726,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>187</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3762,17 +3586,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>187</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3801,17 +3619,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>187</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3840,17 +3652,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>187</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3879,17 +3685,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>187</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3918,17 +3718,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>187</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3957,17 +3751,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>187</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3996,17 +3784,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>187</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4035,17 +3817,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>187</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4074,17 +3850,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>187</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4113,17 +3883,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>187</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4152,17 +3916,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>187</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4191,17 +3949,11 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>187</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4233,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>187</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4272,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>187</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4308,19 +4048,13 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>187</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>1.005695187165776</v>
+        <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
     </row>
@@ -4347,7 +4081,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4380,7 +4114,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4512,7 +4246,7 @@
         <v>-1297769.4589</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4578,7 +4312,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4710,7 +4444,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4776,7 +4510,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4842,7 +4576,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4908,7 +4642,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5106,7 +4840,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5139,7 +4873,7 @@
         <v>-428048.0011999999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -6327,14 +6061,10 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>188</v>
-      </c>
-      <c r="J172" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
@@ -6367,2657 +6097,2225 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>188</v>
-      </c>
-      <c r="K173" t="inlineStr">
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>187</v>
+      </c>
+      <c r="C174" t="n">
+        <v>187</v>
+      </c>
+      <c r="D174" t="n">
+        <v>187</v>
+      </c>
+      <c r="E174" t="n">
+        <v>187</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1347.9534</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>187</v>
+      </c>
+      <c r="C175" t="n">
+        <v>187</v>
+      </c>
+      <c r="D175" t="n">
+        <v>187</v>
+      </c>
+      <c r="E175" t="n">
+        <v>187</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2953.6399</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>187</v>
+      </c>
+      <c r="C176" t="n">
+        <v>187</v>
+      </c>
+      <c r="D176" t="n">
+        <v>187</v>
+      </c>
+      <c r="E176" t="n">
+        <v>187</v>
+      </c>
+      <c r="F176" t="n">
+        <v>342.9996</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>187</v>
+      </c>
+      <c r="C177" t="n">
+        <v>187</v>
+      </c>
+      <c r="D177" t="n">
+        <v>187</v>
+      </c>
+      <c r="E177" t="n">
+        <v>187</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1027.2035</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>187</v>
+      </c>
+      <c r="C178" t="n">
+        <v>187</v>
+      </c>
+      <c r="D178" t="n">
+        <v>187</v>
+      </c>
+      <c r="E178" t="n">
+        <v>187</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3911.7498</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>187</v>
+      </c>
+      <c r="C179" t="n">
+        <v>187</v>
+      </c>
+      <c r="D179" t="n">
+        <v>187</v>
+      </c>
+      <c r="E179" t="n">
+        <v>187</v>
+      </c>
+      <c r="F179" t="n">
+        <v>780.476</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>187</v>
+      </c>
+      <c r="C180" t="n">
+        <v>187</v>
+      </c>
+      <c r="D180" t="n">
+        <v>187</v>
+      </c>
+      <c r="E180" t="n">
+        <v>187</v>
+      </c>
+      <c r="F180" t="n">
+        <v>5.9993</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>187</v>
+      </c>
+      <c r="C181" t="n">
+        <v>187</v>
+      </c>
+      <c r="D181" t="n">
+        <v>187</v>
+      </c>
+      <c r="E181" t="n">
+        <v>187</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2769</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>186</v>
+      </c>
+      <c r="C182" t="n">
+        <v>187</v>
+      </c>
+      <c r="D182" t="n">
+        <v>187</v>
+      </c>
+      <c r="E182" t="n">
+        <v>186</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3096.0258</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>187</v>
+      </c>
+      <c r="C183" t="n">
+        <v>187</v>
+      </c>
+      <c r="D183" t="n">
+        <v>187</v>
+      </c>
+      <c r="E183" t="n">
+        <v>187</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4663.3509</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>187</v>
+      </c>
+      <c r="C184" t="n">
+        <v>187</v>
+      </c>
+      <c r="D184" t="n">
+        <v>187</v>
+      </c>
+      <c r="E184" t="n">
+        <v>187</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1011.0365</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>187</v>
+      </c>
+      <c r="C185" t="n">
+        <v>187</v>
+      </c>
+      <c r="D185" t="n">
+        <v>187</v>
+      </c>
+      <c r="E185" t="n">
+        <v>187</v>
+      </c>
+      <c r="F185" t="n">
+        <v>585</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1418320.5531</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>187</v>
+      </c>
+      <c r="C186" t="n">
+        <v>188</v>
+      </c>
+      <c r="D186" t="n">
+        <v>188</v>
+      </c>
+      <c r="E186" t="n">
+        <v>184</v>
+      </c>
+      <c r="F186" t="n">
+        <v>18106.2161</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1400214.337</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>186</v>
+      </c>
+      <c r="C187" t="n">
+        <v>186</v>
+      </c>
+      <c r="D187" t="n">
+        <v>186</v>
+      </c>
+      <c r="E187" t="n">
+        <v>186</v>
+      </c>
+      <c r="F187" t="n">
+        <v>954.6634</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1401169.0004</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>186</v>
+      </c>
+      <c r="C188" t="n">
+        <v>186</v>
+      </c>
+      <c r="D188" t="n">
+        <v>186</v>
+      </c>
+      <c r="E188" t="n">
+        <v>186</v>
+      </c>
+      <c r="F188" t="n">
+        <v>349.2527</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1401169.0004</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>186</v>
+      </c>
+      <c r="C189" t="n">
+        <v>186</v>
+      </c>
+      <c r="D189" t="n">
+        <v>186</v>
+      </c>
+      <c r="E189" t="n">
+        <v>186</v>
+      </c>
+      <c r="F189" t="n">
+        <v>985</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1401169.0004</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>187</v>
+      </c>
+      <c r="C190" t="n">
+        <v>185</v>
+      </c>
+      <c r="D190" t="n">
+        <v>187</v>
+      </c>
+      <c r="E190" t="n">
+        <v>185</v>
+      </c>
+      <c r="F190" t="n">
+        <v>28800.2359</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1429969.2363</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>188</v>
+      </c>
+      <c r="C191" t="n">
+        <v>188</v>
+      </c>
+      <c r="D191" t="n">
+        <v>188</v>
+      </c>
+      <c r="E191" t="n">
+        <v>188</v>
+      </c>
+      <c r="F191" t="n">
+        <v>60.5531</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1429908.6832</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>188</v>
+      </c>
+      <c r="C192" t="n">
+        <v>186</v>
+      </c>
+      <c r="D192" t="n">
+        <v>188</v>
+      </c>
+      <c r="E192" t="n">
+        <v>186</v>
+      </c>
+      <c r="F192" t="n">
+        <v>28900.8029</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1458809.4861</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>188</v>
+      </c>
+      <c r="C193" t="n">
+        <v>188</v>
+      </c>
+      <c r="D193" t="n">
+        <v>188</v>
+      </c>
+      <c r="E193" t="n">
+        <v>188</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1455409.4861</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>186</v>
+      </c>
+      <c r="C194" t="n">
+        <v>187</v>
+      </c>
+      <c r="D194" t="n">
+        <v>187</v>
+      </c>
+      <c r="E194" t="n">
+        <v>186</v>
+      </c>
+      <c r="F194" t="n">
+        <v>503.3971</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1455912.8832</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>188</v>
+      </c>
+      <c r="C195" t="n">
+        <v>188</v>
+      </c>
+      <c r="D195" t="n">
+        <v>188</v>
+      </c>
+      <c r="E195" t="n">
+        <v>188</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3316</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1452596.8832</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>188</v>
+      </c>
+      <c r="C196" t="n">
+        <v>189</v>
+      </c>
+      <c r="D196" t="n">
+        <v>189</v>
+      </c>
+      <c r="E196" t="n">
+        <v>188</v>
+      </c>
+      <c r="F196" t="n">
+        <v>8523.2199</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1444073.6633</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>188</v>
+      </c>
+      <c r="C197" t="n">
+        <v>189</v>
+      </c>
+      <c r="D197" t="n">
+        <v>189</v>
+      </c>
+      <c r="E197" t="n">
+        <v>188</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4038.305</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1444073.6633</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>189</v>
+      </c>
+      <c r="C198" t="n">
+        <v>189</v>
+      </c>
+      <c r="D198" t="n">
+        <v>189</v>
+      </c>
+      <c r="E198" t="n">
+        <v>189</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2.4232</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1444073.6633</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>189</v>
+      </c>
+      <c r="C199" t="n">
+        <v>189</v>
+      </c>
+      <c r="D199" t="n">
+        <v>189</v>
+      </c>
+      <c r="E199" t="n">
+        <v>189</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4627.0373</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1444073.6633</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>189</v>
+      </c>
+      <c r="C200" t="n">
+        <v>189</v>
+      </c>
+      <c r="D200" t="n">
+        <v>189</v>
+      </c>
+      <c r="E200" t="n">
+        <v>189</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3044.16</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1444073.6633</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>189</v>
+      </c>
+      <c r="C201" t="n">
+        <v>189</v>
+      </c>
+      <c r="D201" t="n">
+        <v>189</v>
+      </c>
+      <c r="E201" t="n">
+        <v>189</v>
+      </c>
+      <c r="F201" t="n">
+        <v>84.9008</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1444073.6633</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>189</v>
+      </c>
+      <c r="C202" t="n">
+        <v>189</v>
+      </c>
+      <c r="D202" t="n">
+        <v>189</v>
+      </c>
+      <c r="E202" t="n">
+        <v>189</v>
+      </c>
+      <c r="F202" t="n">
+        <v>13.9534</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1444073.6633</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>190</v>
+      </c>
+      <c r="C203" t="n">
+        <v>190</v>
+      </c>
+      <c r="D203" t="n">
+        <v>190</v>
+      </c>
+      <c r="E203" t="n">
+        <v>190</v>
+      </c>
+      <c r="F203" t="n">
+        <v>177.7926</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1443895.8707</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>190</v>
+      </c>
+      <c r="C204" t="n">
+        <v>190</v>
+      </c>
+      <c r="D204" t="n">
+        <v>190</v>
+      </c>
+      <c r="E204" t="n">
+        <v>190</v>
+      </c>
+      <c r="F204" t="n">
+        <v>75.563</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1443895.8707</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>191</v>
+      </c>
+      <c r="C205" t="n">
+        <v>191</v>
+      </c>
+      <c r="D205" t="n">
+        <v>191</v>
+      </c>
+      <c r="E205" t="n">
+        <v>191</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2941.6125</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1440954.2582</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>190</v>
+      </c>
+      <c r="C206" t="n">
+        <v>190</v>
+      </c>
+      <c r="D206" t="n">
+        <v>190</v>
+      </c>
+      <c r="E206" t="n">
+        <v>190</v>
+      </c>
+      <c r="F206" t="n">
+        <v>235.9364</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1441190.1946</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>190</v>
+      </c>
+      <c r="C207" t="n">
+        <v>190</v>
+      </c>
+      <c r="D207" t="n">
+        <v>190</v>
+      </c>
+      <c r="E207" t="n">
+        <v>190</v>
+      </c>
+      <c r="F207" t="n">
+        <v>397.5473</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1441190.1946</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>191</v>
+      </c>
+      <c r="C208" t="n">
+        <v>191</v>
+      </c>
+      <c r="D208" t="n">
+        <v>191</v>
+      </c>
+      <c r="E208" t="n">
+        <v>191</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1441189.1946</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>191</v>
+      </c>
+      <c r="C209" t="n">
+        <v>191</v>
+      </c>
+      <c r="D209" t="n">
+        <v>191</v>
+      </c>
+      <c r="E209" t="n">
+        <v>191</v>
+      </c>
+      <c r="F209" t="n">
+        <v>5558.1413</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1441189.1946</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>191</v>
+      </c>
+      <c r="C210" t="n">
+        <v>191</v>
+      </c>
+      <c r="D210" t="n">
+        <v>191</v>
+      </c>
+      <c r="E210" t="n">
+        <v>191</v>
+      </c>
+      <c r="F210" t="n">
+        <v>7804.0497</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1441189.1946</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>189</v>
+      </c>
+      <c r="C211" t="n">
+        <v>191</v>
+      </c>
+      <c r="D211" t="n">
+        <v>191</v>
+      </c>
+      <c r="E211" t="n">
+        <v>189</v>
+      </c>
+      <c r="F211" t="n">
+        <v>5135.8185</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1441189.1946</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>190</v>
+      </c>
+      <c r="C212" t="n">
+        <v>190</v>
+      </c>
+      <c r="D212" t="n">
+        <v>190</v>
+      </c>
+      <c r="E212" t="n">
+        <v>190</v>
+      </c>
+      <c r="F212" t="n">
+        <v>231.0187</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1441420.2133</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>189</v>
+      </c>
+      <c r="C213" t="n">
+        <v>189</v>
+      </c>
+      <c r="D213" t="n">
+        <v>189</v>
+      </c>
+      <c r="E213" t="n">
+        <v>189</v>
+      </c>
+      <c r="F213" t="n">
+        <v>6691.1874</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1448111.4007</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>191</v>
+      </c>
+      <c r="C214" t="n">
+        <v>191</v>
+      </c>
+      <c r="D214" t="n">
+        <v>191</v>
+      </c>
+      <c r="E214" t="n">
+        <v>191</v>
+      </c>
+      <c r="F214" t="n">
+        <v>8882.983899999999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1439228.4168</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>189</v>
+      </c>
+      <c r="C215" t="n">
+        <v>189</v>
+      </c>
+      <c r="D215" t="n">
+        <v>189</v>
+      </c>
+      <c r="E215" t="n">
+        <v>189</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2136.79</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1441365.2068</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>190</v>
+      </c>
+      <c r="C216" t="n">
+        <v>190</v>
+      </c>
+      <c r="D216" t="n">
+        <v>190</v>
+      </c>
+      <c r="E216" t="n">
+        <v>190</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1441364.2068</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>189</v>
+      </c>
+      <c r="C217" t="n">
+        <v>189</v>
+      </c>
+      <c r="D217" t="n">
+        <v>189</v>
+      </c>
+      <c r="E217" t="n">
+        <v>189</v>
+      </c>
+      <c r="F217" t="n">
+        <v>901.1508</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1442265.3576</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>189</v>
+      </c>
+      <c r="C218" t="n">
+        <v>189</v>
+      </c>
+      <c r="D218" t="n">
+        <v>189</v>
+      </c>
+      <c r="E218" t="n">
+        <v>189</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2550</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1442265.3576</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>189</v>
+      </c>
+      <c r="C219" t="n">
+        <v>189</v>
+      </c>
+      <c r="D219" t="n">
+        <v>189</v>
+      </c>
+      <c r="E219" t="n">
+        <v>189</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3550</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1442265.3576</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>188</v>
+      </c>
+      <c r="C220" t="n">
+        <v>188</v>
+      </c>
+      <c r="D220" t="n">
+        <v>188</v>
+      </c>
+      <c r="E220" t="n">
+        <v>187</v>
+      </c>
+      <c r="F220" t="n">
+        <v>6196.2395</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1448461.597099999</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>188</v>
+      </c>
+      <c r="C221" t="n">
+        <v>188</v>
+      </c>
+      <c r="D221" t="n">
+        <v>188</v>
+      </c>
+      <c r="E221" t="n">
+        <v>188</v>
+      </c>
+      <c r="F221" t="n">
+        <v>195.6125</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1448461.597099999</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>188</v>
+      </c>
+      <c r="C222" t="n">
+        <v>188</v>
+      </c>
+      <c r="D222" t="n">
+        <v>188</v>
+      </c>
+      <c r="E222" t="n">
+        <v>188</v>
+      </c>
+      <c r="F222" t="n">
+        <v>537.6147</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1448461.597099999</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>188</v>
+      </c>
+      <c r="C223" t="n">
+        <v>188</v>
+      </c>
+      <c r="D223" t="n">
+        <v>188</v>
+      </c>
+      <c r="E223" t="n">
+        <v>188</v>
+      </c>
+      <c r="F223" t="n">
+        <v>692.9382000000001</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1448461.597099999</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>187</v>
+      </c>
+      <c r="C224" t="n">
+        <v>187</v>
+      </c>
+      <c r="D224" t="n">
+        <v>187</v>
+      </c>
+      <c r="E224" t="n">
+        <v>187</v>
+      </c>
+      <c r="F224" t="n">
+        <v>786.7415</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1449248.338599999</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>188</v>
+      </c>
+      <c r="C225" t="n">
+        <v>188</v>
+      </c>
+      <c r="D225" t="n">
+        <v>188</v>
+      </c>
+      <c r="E225" t="n">
+        <v>188</v>
+      </c>
+      <c r="F225" t="n">
+        <v>169.7649</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1449078.573699999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>188</v>
+      </c>
+      <c r="C226" t="n">
+        <v>188</v>
+      </c>
+      <c r="D226" t="n">
+        <v>188</v>
+      </c>
+      <c r="E226" t="n">
+        <v>188</v>
+      </c>
+      <c r="F226" t="n">
+        <v>13</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1449078.573699999</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>188</v>
+      </c>
+      <c r="C227" t="n">
+        <v>188</v>
+      </c>
+      <c r="D227" t="n">
+        <v>188</v>
+      </c>
+      <c r="E227" t="n">
+        <v>188</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3050</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1449078.573699999</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>187</v>
+      </c>
+      <c r="C228" t="n">
+        <v>187</v>
+      </c>
+      <c r="D228" t="n">
+        <v>187</v>
+      </c>
+      <c r="E228" t="n">
+        <v>187</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1468.4558</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1450547.029499999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>187</v>
+      </c>
+      <c r="C229" t="n">
+        <v>187</v>
+      </c>
+      <c r="D229" t="n">
+        <v>187</v>
+      </c>
+      <c r="E229" t="n">
+        <v>187</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2934.2584</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1450547.029499999</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>188</v>
+      </c>
+      <c r="C230" t="n">
+        <v>188</v>
+      </c>
+      <c r="D230" t="n">
+        <v>188</v>
+      </c>
+      <c r="E230" t="n">
+        <v>188</v>
+      </c>
+      <c r="F230" t="n">
+        <v>293.4739</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1450253.555599999</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>188</v>
+      </c>
+      <c r="C231" t="n">
+        <v>188</v>
+      </c>
+      <c r="D231" t="n">
+        <v>188</v>
+      </c>
+      <c r="E231" t="n">
+        <v>188</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1315.4026</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1450253.555599999</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>188</v>
+      </c>
+      <c r="C232" t="n">
+        <v>188</v>
+      </c>
+      <c r="D232" t="n">
+        <v>188</v>
+      </c>
+      <c r="E232" t="n">
+        <v>188</v>
+      </c>
+      <c r="F232" t="n">
+        <v>176.8253</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1450253.555599999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>188</v>
+      </c>
+      <c r="C233" t="n">
+        <v>188</v>
+      </c>
+      <c r="D233" t="n">
+        <v>188</v>
+      </c>
+      <c r="E233" t="n">
+        <v>188</v>
+      </c>
+      <c r="F233" t="n">
+        <v>600</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1450253.555599999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>188</v>
+      </c>
+      <c r="C234" t="n">
+        <v>188</v>
+      </c>
+      <c r="D234" t="n">
+        <v>188</v>
+      </c>
+      <c r="E234" t="n">
+        <v>188</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2700</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1450253.555599999</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>187</v>
+      </c>
+      <c r="C235" t="n">
+        <v>185</v>
+      </c>
+      <c r="D235" t="n">
+        <v>187</v>
+      </c>
+      <c r="E235" t="n">
+        <v>185</v>
+      </c>
+      <c r="F235" t="n">
+        <v>68237.6752</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1518491.230799999</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>187</v>
+      </c>
+      <c r="C236" t="n">
+        <v>186</v>
+      </c>
+      <c r="D236" t="n">
+        <v>187</v>
+      </c>
+      <c r="E236" t="n">
+        <v>186</v>
+      </c>
+      <c r="F236" t="n">
+        <v>9029.0749</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1509462.155899999</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>186</v>
+      </c>
+      <c r="C237" t="n">
+        <v>186</v>
+      </c>
+      <c r="D237" t="n">
+        <v>186</v>
+      </c>
+      <c r="E237" t="n">
+        <v>186</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.5021</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1509462.155899999</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>187</v>
+      </c>
+      <c r="C238" t="n">
+        <v>187</v>
+      </c>
+      <c r="D238" t="n">
+        <v>187</v>
+      </c>
+      <c r="E238" t="n">
+        <v>187</v>
+      </c>
+      <c r="F238" t="n">
+        <v>526.3157</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1508935.8402</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>186</v>
+      </c>
+      <c r="C239" t="n">
+        <v>186</v>
+      </c>
+      <c r="D239" t="n">
+        <v>186</v>
+      </c>
+      <c r="E239" t="n">
+        <v>186</v>
+      </c>
+      <c r="F239" t="n">
+        <v>303.3439</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1509239.184099999</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>186</v>
+      </c>
+      <c r="C240" t="n">
+        <v>187</v>
+      </c>
+      <c r="D240" t="n">
+        <v>187</v>
+      </c>
+      <c r="E240" t="n">
+        <v>186</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1669</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1507570.184099999</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>186</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>187</v>
-      </c>
-      <c r="C174" t="n">
-        <v>187</v>
-      </c>
-      <c r="D174" t="n">
-        <v>187</v>
-      </c>
-      <c r="E174" t="n">
-        <v>187</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1347.9534</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>187</v>
-      </c>
-      <c r="J174" t="n">
-        <v>188</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>187</v>
-      </c>
-      <c r="C175" t="n">
-        <v>187</v>
-      </c>
-      <c r="D175" t="n">
-        <v>187</v>
-      </c>
-      <c r="E175" t="n">
-        <v>187</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2953.6399</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>187</v>
-      </c>
-      <c r="J175" t="n">
-        <v>188</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>187</v>
-      </c>
-      <c r="C176" t="n">
-        <v>187</v>
-      </c>
-      <c r="D176" t="n">
-        <v>187</v>
-      </c>
-      <c r="E176" t="n">
-        <v>187</v>
-      </c>
-      <c r="F176" t="n">
-        <v>342.9996</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>187</v>
-      </c>
-      <c r="J176" t="n">
-        <v>188</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>187</v>
-      </c>
-      <c r="C177" t="n">
-        <v>187</v>
-      </c>
-      <c r="D177" t="n">
-        <v>187</v>
-      </c>
-      <c r="E177" t="n">
-        <v>187</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1027.2035</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>187</v>
-      </c>
-      <c r="J177" t="n">
-        <v>188</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>187</v>
-      </c>
-      <c r="C178" t="n">
-        <v>187</v>
-      </c>
-      <c r="D178" t="n">
-        <v>187</v>
-      </c>
-      <c r="E178" t="n">
-        <v>187</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3911.7498</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>188</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>187</v>
-      </c>
-      <c r="C179" t="n">
-        <v>187</v>
-      </c>
-      <c r="D179" t="n">
-        <v>187</v>
-      </c>
-      <c r="E179" t="n">
-        <v>187</v>
-      </c>
-      <c r="F179" t="n">
-        <v>780.476</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>188</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>187</v>
-      </c>
-      <c r="C180" t="n">
-        <v>187</v>
-      </c>
-      <c r="D180" t="n">
-        <v>187</v>
-      </c>
-      <c r="E180" t="n">
-        <v>187</v>
-      </c>
-      <c r="F180" t="n">
-        <v>5.9993</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>188</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>187</v>
-      </c>
-      <c r="C181" t="n">
-        <v>187</v>
-      </c>
-      <c r="D181" t="n">
-        <v>187</v>
-      </c>
-      <c r="E181" t="n">
-        <v>187</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2769</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>188</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>186</v>
-      </c>
-      <c r="C182" t="n">
-        <v>187</v>
-      </c>
-      <c r="D182" t="n">
-        <v>187</v>
-      </c>
-      <c r="E182" t="n">
-        <v>186</v>
-      </c>
-      <c r="F182" t="n">
-        <v>3096.0258</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>188</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>187</v>
-      </c>
-      <c r="C183" t="n">
-        <v>187</v>
-      </c>
-      <c r="D183" t="n">
-        <v>187</v>
-      </c>
-      <c r="E183" t="n">
-        <v>187</v>
-      </c>
-      <c r="F183" t="n">
-        <v>4663.3509</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>187</v>
-      </c>
-      <c r="J183" t="n">
-        <v>188</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>187</v>
-      </c>
-      <c r="C184" t="n">
-        <v>187</v>
-      </c>
-      <c r="D184" t="n">
-        <v>187</v>
-      </c>
-      <c r="E184" t="n">
-        <v>187</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1011.0365</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>187</v>
-      </c>
-      <c r="J184" t="n">
-        <v>188</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>187</v>
-      </c>
-      <c r="C185" t="n">
-        <v>187</v>
-      </c>
-      <c r="D185" t="n">
-        <v>187</v>
-      </c>
-      <c r="E185" t="n">
-        <v>187</v>
-      </c>
-      <c r="F185" t="n">
-        <v>585</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1418320.5531</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>188</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>187</v>
-      </c>
-      <c r="C186" t="n">
-        <v>188</v>
-      </c>
-      <c r="D186" t="n">
-        <v>188</v>
-      </c>
-      <c r="E186" t="n">
-        <v>184</v>
-      </c>
-      <c r="F186" t="n">
-        <v>18106.2161</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1400214.337</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>187</v>
-      </c>
-      <c r="J186" t="n">
-        <v>188</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>186</v>
-      </c>
-      <c r="C187" t="n">
-        <v>186</v>
-      </c>
-      <c r="D187" t="n">
-        <v>186</v>
-      </c>
-      <c r="E187" t="n">
-        <v>186</v>
-      </c>
-      <c r="F187" t="n">
-        <v>954.6634</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1401169.0004</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>188</v>
-      </c>
-      <c r="J187" t="n">
-        <v>188</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>186</v>
-      </c>
-      <c r="C188" t="n">
-        <v>186</v>
-      </c>
-      <c r="D188" t="n">
-        <v>186</v>
-      </c>
-      <c r="E188" t="n">
-        <v>186</v>
-      </c>
-      <c r="F188" t="n">
-        <v>349.2527</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-1401169.0004</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>186</v>
-      </c>
-      <c r="J188" t="n">
-        <v>188</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>186</v>
-      </c>
-      <c r="C189" t="n">
-        <v>186</v>
-      </c>
-      <c r="D189" t="n">
-        <v>186</v>
-      </c>
-      <c r="E189" t="n">
-        <v>186</v>
-      </c>
-      <c r="F189" t="n">
-        <v>985</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-1401169.0004</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>186</v>
-      </c>
-      <c r="J189" t="n">
-        <v>188</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>187</v>
-      </c>
-      <c r="C190" t="n">
-        <v>185</v>
-      </c>
-      <c r="D190" t="n">
-        <v>187</v>
-      </c>
-      <c r="E190" t="n">
-        <v>185</v>
-      </c>
-      <c r="F190" t="n">
-        <v>28800.2359</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-1429969.2363</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>186</v>
-      </c>
-      <c r="J190" t="n">
-        <v>188</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>188</v>
-      </c>
-      <c r="C191" t="n">
-        <v>188</v>
-      </c>
-      <c r="D191" t="n">
-        <v>188</v>
-      </c>
-      <c r="E191" t="n">
-        <v>188</v>
-      </c>
-      <c r="F191" t="n">
-        <v>60.5531</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1429908.6832</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>188</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>188</v>
-      </c>
-      <c r="C192" t="n">
-        <v>186</v>
-      </c>
-      <c r="D192" t="n">
-        <v>188</v>
-      </c>
-      <c r="E192" t="n">
-        <v>186</v>
-      </c>
-      <c r="F192" t="n">
-        <v>28900.8029</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1458809.4861</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>188</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>188</v>
-      </c>
-      <c r="C193" t="n">
-        <v>188</v>
-      </c>
-      <c r="D193" t="n">
-        <v>188</v>
-      </c>
-      <c r="E193" t="n">
-        <v>188</v>
-      </c>
-      <c r="F193" t="n">
-        <v>3400</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1455409.4861</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>188</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>186</v>
-      </c>
-      <c r="C194" t="n">
-        <v>187</v>
-      </c>
-      <c r="D194" t="n">
-        <v>187</v>
-      </c>
-      <c r="E194" t="n">
-        <v>186</v>
-      </c>
-      <c r="F194" t="n">
-        <v>503.3971</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1455912.8832</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>188</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>188</v>
-      </c>
-      <c r="C195" t="n">
-        <v>188</v>
-      </c>
-      <c r="D195" t="n">
-        <v>188</v>
-      </c>
-      <c r="E195" t="n">
-        <v>188</v>
-      </c>
-      <c r="F195" t="n">
-        <v>3316</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-1452596.8832</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>188</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>188</v>
-      </c>
-      <c r="C196" t="n">
-        <v>189</v>
-      </c>
-      <c r="D196" t="n">
-        <v>189</v>
-      </c>
-      <c r="E196" t="n">
-        <v>188</v>
-      </c>
-      <c r="F196" t="n">
-        <v>8523.2199</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-1444073.6633</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>188</v>
-      </c>
-      <c r="J196" t="n">
-        <v>188</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>188</v>
-      </c>
-      <c r="C197" t="n">
-        <v>189</v>
-      </c>
-      <c r="D197" t="n">
-        <v>189</v>
-      </c>
-      <c r="E197" t="n">
-        <v>188</v>
-      </c>
-      <c r="F197" t="n">
-        <v>4038.305</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-1444073.6633</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>188</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>189</v>
-      </c>
-      <c r="C198" t="n">
-        <v>189</v>
-      </c>
-      <c r="D198" t="n">
-        <v>189</v>
-      </c>
-      <c r="E198" t="n">
-        <v>189</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2.4232</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-1444073.6633</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>188</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>189</v>
-      </c>
-      <c r="C199" t="n">
-        <v>189</v>
-      </c>
-      <c r="D199" t="n">
-        <v>189</v>
-      </c>
-      <c r="E199" t="n">
-        <v>189</v>
-      </c>
-      <c r="F199" t="n">
-        <v>4627.0373</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-1444073.6633</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>188</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>189</v>
-      </c>
-      <c r="C200" t="n">
-        <v>189</v>
-      </c>
-      <c r="D200" t="n">
-        <v>189</v>
-      </c>
-      <c r="E200" t="n">
-        <v>189</v>
-      </c>
-      <c r="F200" t="n">
-        <v>3044.16</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-1444073.6633</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>188</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>189</v>
-      </c>
-      <c r="C201" t="n">
-        <v>189</v>
-      </c>
-      <c r="D201" t="n">
-        <v>189</v>
-      </c>
-      <c r="E201" t="n">
-        <v>189</v>
-      </c>
-      <c r="F201" t="n">
-        <v>84.9008</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-1444073.6633</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>188</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>189</v>
-      </c>
-      <c r="C202" t="n">
-        <v>189</v>
-      </c>
-      <c r="D202" t="n">
-        <v>189</v>
-      </c>
-      <c r="E202" t="n">
-        <v>189</v>
-      </c>
-      <c r="F202" t="n">
-        <v>13.9534</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-1444073.6633</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>188</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>190</v>
-      </c>
-      <c r="C203" t="n">
-        <v>190</v>
-      </c>
-      <c r="D203" t="n">
-        <v>190</v>
-      </c>
-      <c r="E203" t="n">
-        <v>190</v>
-      </c>
-      <c r="F203" t="n">
-        <v>177.7926</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-1443895.8707</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>188</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>190</v>
-      </c>
-      <c r="C204" t="n">
-        <v>190</v>
-      </c>
-      <c r="D204" t="n">
-        <v>190</v>
-      </c>
-      <c r="E204" t="n">
-        <v>190</v>
-      </c>
-      <c r="F204" t="n">
-        <v>75.563</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-1443895.8707</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>188</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>191</v>
-      </c>
-      <c r="C205" t="n">
-        <v>191</v>
-      </c>
-      <c r="D205" t="n">
-        <v>191</v>
-      </c>
-      <c r="E205" t="n">
-        <v>191</v>
-      </c>
-      <c r="F205" t="n">
-        <v>2941.6125</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-1440954.2582</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>188</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>190</v>
-      </c>
-      <c r="C206" t="n">
-        <v>190</v>
-      </c>
-      <c r="D206" t="n">
-        <v>190</v>
-      </c>
-      <c r="E206" t="n">
-        <v>190</v>
-      </c>
-      <c r="F206" t="n">
-        <v>235.9364</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-1441190.1946</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>188</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>190</v>
-      </c>
-      <c r="C207" t="n">
-        <v>190</v>
-      </c>
-      <c r="D207" t="n">
-        <v>190</v>
-      </c>
-      <c r="E207" t="n">
-        <v>190</v>
-      </c>
-      <c r="F207" t="n">
-        <v>397.5473</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-1441190.1946</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>188</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>191</v>
-      </c>
-      <c r="C208" t="n">
-        <v>191</v>
-      </c>
-      <c r="D208" t="n">
-        <v>191</v>
-      </c>
-      <c r="E208" t="n">
-        <v>191</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1441189.1946</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>188</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>191</v>
-      </c>
-      <c r="C209" t="n">
-        <v>191</v>
-      </c>
-      <c r="D209" t="n">
-        <v>191</v>
-      </c>
-      <c r="E209" t="n">
-        <v>191</v>
-      </c>
-      <c r="F209" t="n">
-        <v>5558.1413</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1441189.1946</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>188</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>191</v>
-      </c>
-      <c r="C210" t="n">
-        <v>191</v>
-      </c>
-      <c r="D210" t="n">
-        <v>191</v>
-      </c>
-      <c r="E210" t="n">
-        <v>191</v>
-      </c>
-      <c r="F210" t="n">
-        <v>7804.0497</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1441189.1946</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>188</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>189</v>
-      </c>
-      <c r="C211" t="n">
-        <v>191</v>
-      </c>
-      <c r="D211" t="n">
-        <v>191</v>
-      </c>
-      <c r="E211" t="n">
-        <v>189</v>
-      </c>
-      <c r="F211" t="n">
-        <v>5135.8185</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1441189.1946</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>188</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>190</v>
-      </c>
-      <c r="C212" t="n">
-        <v>190</v>
-      </c>
-      <c r="D212" t="n">
-        <v>190</v>
-      </c>
-      <c r="E212" t="n">
-        <v>190</v>
-      </c>
-      <c r="F212" t="n">
-        <v>231.0187</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1441420.2133</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>188</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>189</v>
-      </c>
-      <c r="C213" t="n">
-        <v>189</v>
-      </c>
-      <c r="D213" t="n">
-        <v>189</v>
-      </c>
-      <c r="E213" t="n">
-        <v>189</v>
-      </c>
-      <c r="F213" t="n">
-        <v>6691.1874</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1448111.4007</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>188</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>191</v>
-      </c>
-      <c r="C214" t="n">
-        <v>191</v>
-      </c>
-      <c r="D214" t="n">
-        <v>191</v>
-      </c>
-      <c r="E214" t="n">
-        <v>191</v>
-      </c>
-      <c r="F214" t="n">
-        <v>8882.983899999999</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1439228.4168</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>188</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>189</v>
-      </c>
-      <c r="C215" t="n">
-        <v>189</v>
-      </c>
-      <c r="D215" t="n">
-        <v>189</v>
-      </c>
-      <c r="E215" t="n">
-        <v>189</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2136.79</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1441365.2068</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>188</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>190</v>
-      </c>
-      <c r="C216" t="n">
-        <v>190</v>
-      </c>
-      <c r="D216" t="n">
-        <v>190</v>
-      </c>
-      <c r="E216" t="n">
-        <v>190</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1441364.2068</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>188</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>189</v>
-      </c>
-      <c r="C217" t="n">
-        <v>189</v>
-      </c>
-      <c r="D217" t="n">
-        <v>189</v>
-      </c>
-      <c r="E217" t="n">
-        <v>189</v>
-      </c>
-      <c r="F217" t="n">
-        <v>901.1508</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1442265.3576</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>188</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>189</v>
-      </c>
-      <c r="C218" t="n">
-        <v>189</v>
-      </c>
-      <c r="D218" t="n">
-        <v>189</v>
-      </c>
-      <c r="E218" t="n">
-        <v>189</v>
-      </c>
-      <c r="F218" t="n">
-        <v>2550</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1442265.3576</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>188</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>189</v>
-      </c>
-      <c r="C219" t="n">
-        <v>189</v>
-      </c>
-      <c r="D219" t="n">
-        <v>189</v>
-      </c>
-      <c r="E219" t="n">
-        <v>189</v>
-      </c>
-      <c r="F219" t="n">
-        <v>3550</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1442265.3576</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>188</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>188</v>
-      </c>
-      <c r="C220" t="n">
-        <v>188</v>
-      </c>
-      <c r="D220" t="n">
-        <v>188</v>
-      </c>
-      <c r="E220" t="n">
-        <v>187</v>
-      </c>
-      <c r="F220" t="n">
-        <v>6196.2395</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1448461.597099999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>188</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>188</v>
-      </c>
-      <c r="C221" t="n">
-        <v>188</v>
-      </c>
-      <c r="D221" t="n">
-        <v>188</v>
-      </c>
-      <c r="E221" t="n">
-        <v>188</v>
-      </c>
-      <c r="F221" t="n">
-        <v>195.6125</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1448461.597099999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>188</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>188</v>
-      </c>
-      <c r="C222" t="n">
-        <v>188</v>
-      </c>
-      <c r="D222" t="n">
-        <v>188</v>
-      </c>
-      <c r="E222" t="n">
-        <v>188</v>
-      </c>
-      <c r="F222" t="n">
-        <v>537.6147</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1448461.597099999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>188</v>
-      </c>
-      <c r="J222" t="n">
-        <v>188</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>188</v>
-      </c>
-      <c r="C223" t="n">
-        <v>188</v>
-      </c>
-      <c r="D223" t="n">
-        <v>188</v>
-      </c>
-      <c r="E223" t="n">
-        <v>188</v>
-      </c>
-      <c r="F223" t="n">
-        <v>692.9382000000001</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1448461.597099999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>188</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>187</v>
-      </c>
-      <c r="C224" t="n">
-        <v>187</v>
-      </c>
-      <c r="D224" t="n">
-        <v>187</v>
-      </c>
-      <c r="E224" t="n">
-        <v>187</v>
-      </c>
-      <c r="F224" t="n">
-        <v>786.7415</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1449248.338599999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>188</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>188</v>
-      </c>
-      <c r="C225" t="n">
-        <v>188</v>
-      </c>
-      <c r="D225" t="n">
-        <v>188</v>
-      </c>
-      <c r="E225" t="n">
-        <v>188</v>
-      </c>
-      <c r="F225" t="n">
-        <v>169.7649</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1449078.573699999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>188</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>188</v>
-      </c>
-      <c r="C226" t="n">
-        <v>188</v>
-      </c>
-      <c r="D226" t="n">
-        <v>188</v>
-      </c>
-      <c r="E226" t="n">
-        <v>188</v>
-      </c>
-      <c r="F226" t="n">
-        <v>13</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1449078.573699999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>188</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>188</v>
-      </c>
-      <c r="C227" t="n">
-        <v>188</v>
-      </c>
-      <c r="D227" t="n">
-        <v>188</v>
-      </c>
-      <c r="E227" t="n">
-        <v>188</v>
-      </c>
-      <c r="F227" t="n">
-        <v>3050</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1449078.573699999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>188</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>187</v>
-      </c>
-      <c r="C228" t="n">
-        <v>187</v>
-      </c>
-      <c r="D228" t="n">
-        <v>187</v>
-      </c>
-      <c r="E228" t="n">
-        <v>187</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1468.4558</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1450547.029499999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>188</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>187</v>
-      </c>
-      <c r="C229" t="n">
-        <v>187</v>
-      </c>
-      <c r="D229" t="n">
-        <v>187</v>
-      </c>
-      <c r="E229" t="n">
-        <v>187</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2934.2584</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1450547.029499999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>188</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>188</v>
-      </c>
-      <c r="C230" t="n">
-        <v>188</v>
-      </c>
-      <c r="D230" t="n">
-        <v>188</v>
-      </c>
-      <c r="E230" t="n">
-        <v>188</v>
-      </c>
-      <c r="F230" t="n">
-        <v>293.4739</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1450253.555599999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>188</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>188</v>
-      </c>
-      <c r="C231" t="n">
-        <v>188</v>
-      </c>
-      <c r="D231" t="n">
-        <v>188</v>
-      </c>
-      <c r="E231" t="n">
-        <v>188</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1315.4026</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1450253.555599999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>188</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>188</v>
-      </c>
-      <c r="C232" t="n">
-        <v>188</v>
-      </c>
-      <c r="D232" t="n">
-        <v>188</v>
-      </c>
-      <c r="E232" t="n">
-        <v>188</v>
-      </c>
-      <c r="F232" t="n">
-        <v>176.8253</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1450253.555599999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>188</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>188</v>
-      </c>
-      <c r="C233" t="n">
-        <v>188</v>
-      </c>
-      <c r="D233" t="n">
-        <v>188</v>
-      </c>
-      <c r="E233" t="n">
-        <v>188</v>
-      </c>
-      <c r="F233" t="n">
-        <v>600</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1450253.555599999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>188</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>188</v>
-      </c>
-      <c r="C234" t="n">
-        <v>188</v>
-      </c>
-      <c r="D234" t="n">
-        <v>188</v>
-      </c>
-      <c r="E234" t="n">
-        <v>188</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2700</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1450253.555599999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>188</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>187</v>
-      </c>
-      <c r="C235" t="n">
-        <v>185</v>
-      </c>
-      <c r="D235" t="n">
-        <v>187</v>
-      </c>
-      <c r="E235" t="n">
-        <v>185</v>
-      </c>
-      <c r="F235" t="n">
-        <v>68237.6752</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1518491.230799999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>188</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>187</v>
-      </c>
-      <c r="C236" t="n">
-        <v>186</v>
-      </c>
-      <c r="D236" t="n">
-        <v>187</v>
-      </c>
-      <c r="E236" t="n">
-        <v>186</v>
-      </c>
-      <c r="F236" t="n">
-        <v>9029.0749</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1509462.155899999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>188</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>186</v>
-      </c>
-      <c r="C237" t="n">
-        <v>186</v>
-      </c>
-      <c r="D237" t="n">
-        <v>186</v>
-      </c>
-      <c r="E237" t="n">
-        <v>186</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1.5021</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1509462.155899999</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>188</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>187</v>
-      </c>
-      <c r="C238" t="n">
-        <v>187</v>
-      </c>
-      <c r="D238" t="n">
-        <v>187</v>
-      </c>
-      <c r="E238" t="n">
-        <v>187</v>
-      </c>
-      <c r="F238" t="n">
-        <v>526.3157</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1508935.8402</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>186</v>
-      </c>
-      <c r="J238" t="n">
-        <v>188</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>186</v>
-      </c>
-      <c r="C239" t="n">
-        <v>186</v>
-      </c>
-      <c r="D239" t="n">
-        <v>186</v>
-      </c>
-      <c r="E239" t="n">
-        <v>186</v>
-      </c>
-      <c r="F239" t="n">
-        <v>303.3439</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1509239.184099999</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>188</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>186</v>
-      </c>
-      <c r="C240" t="n">
-        <v>187</v>
-      </c>
-      <c r="D240" t="n">
-        <v>187</v>
-      </c>
-      <c r="E240" t="n">
-        <v>186</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1669</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-1507570.184099999</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>186</v>
-      </c>
-      <c r="J240" t="n">
-        <v>188</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9049,9 +8347,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>188</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9088,9 +8384,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>188</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9124,12 +8418,12 @@
         <v>-1506570.184099999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>189</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9166,9 +8460,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>188</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9205,9 +8497,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>188</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9244,9 +8534,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>188</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9283,9 +8571,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>188</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9322,9 +8608,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>188</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9361,9 +8645,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>188</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9400,9 +8682,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>188</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9439,9 +8719,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>188</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9478,9 +8756,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>188</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9514,12 +8790,12 @@
         <v>-1536961.5902</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>188</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9556,9 +8832,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>188</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9595,9 +8869,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>188</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9631,12 +8903,12 @@
         <v>-1536961.5902</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>188</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9673,9 +8945,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>188</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9709,12 +8979,12 @@
         <v>-1537109.2882</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>187</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9748,12 +9018,12 @@
         <v>-1531442.2182</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>186</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9787,12 +9057,12 @@
         <v>-1530641.2182</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>187</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9826,12 +9096,12 @@
         <v>-1530641.2182</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>188</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9868,9 +9138,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>188</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9907,9 +9175,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>188</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9946,9 +9212,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>188</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9985,9 +9249,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>188</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10024,9 +9286,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>188</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10063,9 +9323,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>188</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10102,9 +9360,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>188</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10141,9 +9397,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>188</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,9 +9434,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>188</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10219,9 +9471,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>188</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10258,9 +9508,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>188</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10294,20 +9542,16 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>188</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
@@ -10333,17 +9577,11 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>188</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10372,17 +9610,11 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>188</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10411,17 +9643,11 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>188</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10450,17 +9676,11 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>188</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10489,17 +9709,11 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>188</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10528,17 +9742,11 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>188</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10570,14 +9778,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>188</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10609,14 +9811,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>188</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10648,14 +9844,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>188</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10687,14 +9877,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>188</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10726,14 +9910,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>188</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10765,14 +9943,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>188</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10801,17 +9973,11 @@
         <v>-1537471.970599999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>188</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10840,17 +10006,11 @@
         <v>-1537251.601599999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>188</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10879,17 +10039,11 @@
         <v>-1522354.502699999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>188</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10918,17 +10072,11 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>188</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10957,17 +10105,11 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>188</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10996,17 +10138,11 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>188</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11035,17 +10171,11 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>188</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11077,14 +10207,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>188</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11116,14 +10240,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>188</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11152,17 +10270,11 @@
         <v>-1517592.459499999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>188</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11194,14 +10306,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>188</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11233,14 +10339,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>188</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11272,14 +10372,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>188</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11311,14 +10405,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>188</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11350,14 +10438,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>188</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11389,14 +10471,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>188</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11428,14 +10504,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>188</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11467,14 +10537,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>188</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11506,14 +10570,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>188</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11545,14 +10603,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>188</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11584,14 +10636,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>188</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11623,14 +10669,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>188</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11662,14 +10702,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>188</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11701,14 +10735,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>188</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11740,14 +10768,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>188</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11779,14 +10801,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>188</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11818,14 +10834,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>188</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11857,14 +10867,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>188</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11896,14 +10900,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>188</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11935,14 +10933,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>188</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11974,14 +10966,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>188</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12013,14 +10999,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>188</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12052,14 +11032,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>188</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12091,14 +11065,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>188</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12130,14 +11098,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>188</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12169,14 +11131,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>188</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12208,14 +11164,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>188</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12247,14 +11197,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>188</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12286,14 +11230,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>188</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12325,14 +11263,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>188</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12364,14 +11296,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>188</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12403,14 +11329,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>188</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12442,14 +11362,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>188</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12481,14 +11395,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>188</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12520,14 +11428,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>188</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12559,14 +11461,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>188</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12598,14 +11494,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>188</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12637,14 +11527,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>188</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12676,14 +11560,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>188</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12715,14 +11593,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>188</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12754,14 +11626,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>188</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12793,14 +11659,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>188</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12829,19 +11689,13 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>188</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
-        <v>1.021595744680851</v>
+        <v>1</v>
       </c>
       <c r="M338" t="inlineStr"/>
     </row>
@@ -12868,7 +11722,7 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12901,7 +11755,7 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13033,7 +11887,7 @@
         <v>-1510093.688799999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13066,7 +11920,7 @@
         <v>-1506493.075999999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13099,7 +11953,7 @@
         <v>-1507322.075999999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13132,7 +11986,7 @@
         <v>-1507322.075999999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13165,7 +12019,7 @@
         <v>-1504835.865799999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13198,7 +12052,7 @@
         <v>-1504835.865799999</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13231,7 +12085,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13264,7 +12118,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13297,7 +12151,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13330,7 +12184,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13363,7 +12217,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13396,7 +12250,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13429,7 +12283,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13462,7 +12316,7 @@
         <v>-1522723.983899999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13495,7 +12349,7 @@
         <v>-1524973.983899999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13528,7 +12382,7 @@
         <v>-1524972.983899999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13561,7 +12415,7 @@
         <v>-1560688.209399999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13594,7 +12448,7 @@
         <v>-1560488.209399999</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13627,7 +12481,7 @@
         <v>-1560488.209399999</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13638,6 +12492,6 @@
       <c r="M362" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest KNC.xlsx
+++ b/BackTest/2019-10-25 BackTest KNC.xlsx
@@ -1276,7 +1276,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2530,10 +2530,14 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>187</v>
+      </c>
+      <c r="J65" t="n">
+        <v>187</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2566,8 +2570,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>187</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2606,19 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>187</v>
+      </c>
+      <c r="J67" t="n">
+        <v>187</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,10 +2647,14 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>187</v>
+      </c>
+      <c r="J68" t="n">
+        <v>187</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2662,11 +2684,19 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>187</v>
+      </c>
+      <c r="J69" t="n">
+        <v>187</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2725,19 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>187</v>
+      </c>
+      <c r="J70" t="n">
+        <v>187</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2766,19 @@
         <v>174292.8917000002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>187</v>
+      </c>
+      <c r="J71" t="n">
+        <v>187</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2807,19 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>188</v>
+      </c>
+      <c r="J72" t="n">
+        <v>187</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2848,19 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>187</v>
+      </c>
+      <c r="J73" t="n">
+        <v>187</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2889,19 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>187</v>
+      </c>
+      <c r="J74" t="n">
+        <v>187</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2930,19 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>187</v>
+      </c>
+      <c r="J75" t="n">
+        <v>187</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2971,19 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>187</v>
+      </c>
+      <c r="J76" t="n">
+        <v>187</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3012,19 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>187</v>
+      </c>
+      <c r="J77" t="n">
+        <v>187</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3053,19 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>188</v>
+      </c>
+      <c r="J78" t="n">
+        <v>187</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3094,19 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>188</v>
+      </c>
+      <c r="J79" t="n">
+        <v>187</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3138,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>187</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3177,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>187</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3216,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>187</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3255,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>187</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3291,19 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>188</v>
+      </c>
+      <c r="J84" t="n">
+        <v>187</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3335,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>187</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3374,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>187</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3413,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>187</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3452,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>187</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3491,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>187</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3530,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>187</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3569,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>187</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3608,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>187</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3647,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>187</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3686,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>187</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3725,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>187</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3764,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>187</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3800,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>187</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3839,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>187</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3878,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>187</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3917,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>187</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3956,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>187</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3995,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>187</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4034,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>187</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4073,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>187</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4112,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>187</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4151,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>187</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4190,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>187</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4229,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>187</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4271,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>187</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4310,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>187</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4349,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>187</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4388,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>187</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4424,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>187</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4466,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>187</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4502,17 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>187</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4544,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>187</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4583,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>187</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4622,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>187</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4661,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>187</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4700,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>187</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4739,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>187</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4778,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>187</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4817,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>187</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4856,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>187</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4895,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>187</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>187</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4973,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>187</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>187</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5051,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>187</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5090,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>187</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5129,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>187</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>187</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>187</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>187</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>187</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5324,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>187</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>187</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>187</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>187</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5480,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>187</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>187</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>187</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5597,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>187</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5636,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>187</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5675,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>187</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5714,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>187</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5753,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>187</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5792,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>187</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5831,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>187</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5870,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>187</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5909,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>187</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5948,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>187</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5987,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>187</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6026,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>187</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6065,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>187</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6104,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>187</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6143,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>187</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6182,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>187</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6221,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>187</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6260,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>187</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6299,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>187</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6338,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>187</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6377,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>187</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6416,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>187</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6455,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>187</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6494,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>187</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6533,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>187</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6572,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>187</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6611,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>187</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6647,19 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>188</v>
+      </c>
+      <c r="J170" t="n">
+        <v>187</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6688,19 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>188</v>
+      </c>
+      <c r="J171" t="n">
+        <v>187</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6729,19 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>188</v>
+      </c>
+      <c r="J172" t="n">
+        <v>187</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6770,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>188</v>
+      </c>
+      <c r="J173" t="n">
+        <v>187</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6811,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>187</v>
+      </c>
+      <c r="J174" t="n">
+        <v>187</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6852,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>187</v>
+      </c>
+      <c r="J175" t="n">
+        <v>187</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6893,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>187</v>
+      </c>
+      <c r="J176" t="n">
+        <v>187</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6934,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>187</v>
+      </c>
+      <c r="J177" t="n">
+        <v>187</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6975,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>187</v>
+      </c>
+      <c r="J178" t="n">
+        <v>187</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +7016,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>187</v>
+      </c>
+      <c r="J179" t="n">
+        <v>187</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +7057,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>187</v>
+      </c>
+      <c r="J180" t="n">
+        <v>187</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +7098,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>187</v>
+      </c>
+      <c r="J181" t="n">
+        <v>187</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +7139,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>187</v>
+      </c>
+      <c r="J182" t="n">
+        <v>187</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +7180,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>187</v>
+      </c>
+      <c r="J183" t="n">
+        <v>187</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +7221,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>187</v>
+      </c>
+      <c r="J184" t="n">
+        <v>187</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +7262,19 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>187</v>
+      </c>
+      <c r="J185" t="n">
+        <v>187</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +7303,19 @@
         <v>-1400214.337</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>187</v>
+      </c>
+      <c r="J186" t="n">
+        <v>187</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +7344,19 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>188</v>
+      </c>
+      <c r="J187" t="n">
+        <v>187</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +7385,19 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>186</v>
+      </c>
+      <c r="J188" t="n">
+        <v>187</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7426,19 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>186</v>
+      </c>
+      <c r="J189" t="n">
+        <v>187</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7467,19 @@
         <v>-1429969.2363</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>186</v>
+      </c>
+      <c r="J190" t="n">
+        <v>187</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7511,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>187</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7550,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>187</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7589,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>187</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7628,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>187</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7667,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>187</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7706,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>187</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7745,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>187</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7784,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>187</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7823,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>187</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7862,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>187</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7901,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>187</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7940,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>187</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7979,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>187</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +8018,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>187</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +8057,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>187</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +8096,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>187</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +8135,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>187</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +8174,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>187</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +8213,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>187</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +8252,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>187</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +8291,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>187</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +8330,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>187</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +8369,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>187</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8408,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>187</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +8444,17 @@
         <v>-1441365.2068</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>187</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +8483,17 @@
         <v>-1441364.2068</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>187</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8525,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>187</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +8561,17 @@
         <v>-1442265.3576</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>187</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8603,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>187</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +8639,17 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>187</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8681,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>187</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +8717,19 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>188</v>
+      </c>
+      <c r="J222" t="n">
+        <v>187</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8761,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>187</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +8797,17 @@
         <v>-1449248.338599999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>187</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8836,17 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>187</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +8875,17 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>187</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8914,17 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>187</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8953,17 @@
         <v>-1450547.029499999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>187</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8992,17 @@
         <v>-1450547.029499999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>187</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +9031,17 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>187</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +9070,17 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>187</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +9109,17 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>187</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +9148,17 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>187</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +9187,17 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>187</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +9226,17 @@
         <v>-1518491.230799999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>187</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +9265,17 @@
         <v>-1509462.155899999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>187</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +9304,17 @@
         <v>-1509462.155899999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>187</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +9343,17 @@
         <v>-1508935.8402</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>187</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +9382,17 @@
         <v>-1509239.184099999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>187</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,15 +9421,15 @@
         <v>-1507570.184099999</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>186</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>187</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -8344,10 +9460,14 @@
         <v>-1507570.184099999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>187</v>
+      </c>
+      <c r="J241" t="n">
+        <v>187</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8384,7 +9504,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>187</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8418,12 +9540,12 @@
         <v>-1506570.184099999</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>189</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>187</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8460,7 +9582,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>187</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8497,7 +9621,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>187</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8534,7 +9660,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>187</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,7 +9699,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>187</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8608,7 +9738,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>187</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8645,7 +9777,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>187</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8682,7 +9816,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>187</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8719,7 +9855,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>187</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8756,7 +9894,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>187</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8790,12 +9930,12 @@
         <v>-1536961.5902</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>188</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>187</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8832,7 +9972,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>187</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,7 +10011,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>187</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8903,12 +10047,12 @@
         <v>-1536961.5902</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>188</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>187</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8945,7 +10089,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>187</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8979,12 +10125,12 @@
         <v>-1537109.2882</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>187</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>187</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9018,12 +10164,12 @@
         <v>-1531442.2182</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>186</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>187</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9057,12 +10203,12 @@
         <v>-1530641.2182</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>187</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>187</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9096,12 +10242,12 @@
         <v>-1530641.2182</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>188</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>187</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9138,7 +10284,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>187</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9175,7 +10323,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>187</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9212,7 +10362,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>187</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9249,7 +10401,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>187</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9286,7 +10440,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>187</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9323,7 +10479,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>187</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9360,7 +10518,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>187</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9397,7 +10557,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>187</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9434,7 +10596,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>187</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9471,7 +10635,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>187</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9508,7 +10674,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>187</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9542,16 +10710,20 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>187</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L273" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
       <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
@@ -9577,11 +10749,17 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>187</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9610,11 +10788,17 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>187</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9643,11 +10827,17 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>187</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9676,11 +10866,17 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>187</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9709,11 +10905,17 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>187</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9742,11 +10944,17 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>187</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9778,8 +10986,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>187</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9811,8 +11025,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>187</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9844,8 +11064,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>187</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9877,8 +11103,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>187</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9910,8 +11142,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>187</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9943,8 +11181,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>187</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9973,11 +11217,17 @@
         <v>-1537471.970599999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>187</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10006,11 +11256,17 @@
         <v>-1537251.601599999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>187</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10039,11 +11295,17 @@
         <v>-1522354.502699999</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>187</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10072,11 +11334,17 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>187</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10105,11 +11373,17 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>187</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10138,11 +11412,17 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>187</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10171,11 +11451,17 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>187</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10207,8 +11493,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>187</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10240,8 +11532,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>187</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10270,11 +11568,17 @@
         <v>-1517592.459499999</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>187</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10306,8 +11610,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>187</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10339,8 +11649,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>187</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10372,8 +11688,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>187</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10405,8 +11727,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>187</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10438,8 +11766,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>187</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10471,8 +11805,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>187</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10504,8 +11844,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>187</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10537,8 +11883,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>187</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10570,8 +11922,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>187</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10603,8 +11961,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>187</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10636,8 +12000,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>187</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10669,8 +12039,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>187</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10702,8 +12078,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>187</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10735,8 +12117,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>187</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10765,11 +12153,19 @@
         <v>-1511060.491499999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>189</v>
+      </c>
+      <c r="J310" t="n">
+        <v>187</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10801,8 +12197,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>187</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10834,8 +12236,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>187</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10867,8 +12275,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>187</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10900,8 +12314,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>187</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10933,8 +12353,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>187</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10966,8 +12392,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>187</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10999,8 +12431,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>187</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11032,8 +12470,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>187</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11065,8 +12509,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>187</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11098,8 +12548,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>187</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11131,8 +12587,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>187</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11164,8 +12626,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>187</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11197,8 +12665,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>187</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11230,8 +12704,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>187</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11263,8 +12743,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>187</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11296,8 +12782,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>187</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11329,8 +12821,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>187</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11359,13 +12857,19 @@
         <v>-1511912.287599999</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>187</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L328" t="n">
-        <v>1</v>
+        <v>1.021737967914439</v>
       </c>
       <c r="M328" t="inlineStr"/>
     </row>
@@ -11425,7 +12929,7 @@
         <v>-1512211.287499999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11920,7 +13424,7 @@
         <v>-1506493.075999999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11953,7 +13457,7 @@
         <v>-1507322.075999999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11986,7 +13490,7 @@
         <v>-1507322.075999999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12019,7 +13523,7 @@
         <v>-1504835.865799999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12052,7 +13556,7 @@
         <v>-1504835.865799999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12085,7 +13589,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12118,7 +13622,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12151,7 +13655,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12184,7 +13688,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12349,7 +13853,7 @@
         <v>-1524973.983899999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12415,7 +13919,7 @@
         <v>-1560688.209399999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12481,7 +13985,7 @@
         <v>-1560488.209399999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
